--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="MALA" sheetId="11" r:id="rId8"/>
     <sheet name="REPTILE" sheetId="15" r:id="rId9"/>
     <sheet name="ENTO - Coleoptera" sheetId="17" r:id="rId10"/>
+    <sheet name="HERB" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BIRD!$B$1:$F$110</definedName>
@@ -26,6 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">HERB!$D$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">MALA!$B$1:$G$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">REPTILE!$C$1:$G$70</definedName>
@@ -36,6 +38,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'EH - Sci Hist'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'ENTO - Coleoptera'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">FISH!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">HERB!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">MALA!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MAMM!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">REPTILE!$1:$1</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="628">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3053,6 +3056,84 @@
   </si>
   <si>
     <t>Specimen Description, Habitat</t>
+  </si>
+  <si>
+    <t>Accession Number, Accessioned (Yes/No), Compared to Accession Records</t>
+  </si>
+  <si>
+    <t>Catalogue Number</t>
+  </si>
+  <si>
+    <t>Kingdom, Phylum / Division, Class, Order, Family, Genus, Species, Subspecies, Forma, Variation</t>
+  </si>
+  <si>
+    <t>Identified By, Date</t>
+  </si>
+  <si>
+    <t>Day Collected, Month Collected, Year Collected, Verbatim Date Collected</t>
+  </si>
+  <si>
+    <t>Verbatim Date Collected</t>
+  </si>
+  <si>
+    <t>Verbatim Locality</t>
+  </si>
+  <si>
+    <t>Municipality, Township</t>
+  </si>
+  <si>
+    <t>Country, County, State/ Province</t>
+  </si>
+  <si>
+    <t>Storage Location, Container Label</t>
+  </si>
+  <si>
+    <t>Preparation Style</t>
+  </si>
+  <si>
+    <t>Number of Specimens from Records, Number of Specfimens Verified</t>
+  </si>
+  <si>
+    <t>Collected By, Collector Last Name, Second Collector, Prepared By</t>
+  </si>
+  <si>
+    <t>Disposition, Inventory: Verified 2008-2012 (Yes/No)</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Notes (internal), Exhibit /Loan History, Verified/ Catalogued By, Date Verified/ Catalogued (mm/dd/yyyy), Record Updated By, Date Record Updated (mm/dd/yyyy), Inventory: FileMake DB Entry Date, Remarks</t>
+  </si>
+  <si>
+    <t>Expedition</t>
+  </si>
+  <si>
+    <t>Collected By, Collector Last Name, Second Collector</t>
+  </si>
+  <si>
+    <t>Unknown Numbers, Other Inst. Collection #, Old CHAS #, Field/ Collector #</t>
+  </si>
+  <si>
+    <t>Common Name, Annotations 1, Moss/ Lichen #</t>
+  </si>
+  <si>
+    <t>"CHAS:Herb"</t>
+  </si>
+  <si>
+    <t>Notes affecting the collecting event (rather than locality or object), e.g. "Western Union Extension Telegraph Exploring Expedition, 1865-66"</t>
+  </si>
+  <si>
+    <t>add part name/ deal with "album" and "wood sample"</t>
+  </si>
+  <si>
+    <t>add end date based on collector's death</t>
+  </si>
+  <si>
+    <t>"in collection," "missing"</t>
   </si>
 </sst>
 </file>
@@ -4145,7 +4226,7 @@
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -6424,7 +6505,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="50" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - MAMMALOGY</oddHeader>
   </headerFooter>
@@ -7466,9 +7547,980 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="135.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="55" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="D1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="22" customFormat="1">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="22" customFormat="1">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="22" customFormat="1">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="22" customFormat="1">
+      <c r="A23" s="22">
+        <v>32</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="22" customFormat="1">
+      <c r="A24" s="22">
+        <v>33</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="22" customFormat="1">
+      <c r="A25" s="22">
+        <v>34</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="22" customFormat="1">
+      <c r="A26" s="22">
+        <v>35</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="22" customFormat="1">
+      <c r="A27" s="22">
+        <v>36</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="22" customFormat="1">
+      <c r="A28" s="22">
+        <v>37</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="22" customFormat="1">
+      <c r="A29" s="22">
+        <v>38</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="22" customFormat="1">
+      <c r="A30" s="22">
+        <v>41</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="51">
+      <c r="A31" s="5">
+        <v>42</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A32" s="22">
+        <v>43</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="22" customFormat="1">
+      <c r="A33" s="22">
+        <v>44</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="22" customFormat="1">
+      <c r="A34" s="22">
+        <v>45</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A35" s="22">
+        <v>46</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="22" customFormat="1">
+      <c r="A36" s="22">
+        <v>47</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="22" customFormat="1">
+      <c r="A37" s="22">
+        <v>48</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="5">
+        <v>52</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A39" s="22">
+        <v>53</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="22" customFormat="1">
+      <c r="A40" s="22">
+        <v>55</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A41" s="22">
+        <v>56</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="22" customFormat="1">
+      <c r="A42" s="22">
+        <v>57</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5">
+        <v>58</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" s="22" customFormat="1">
+      <c r="A44" s="22">
+        <v>66</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="22" customFormat="1">
+      <c r="A45" s="22">
+        <v>67</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="22" customFormat="1">
+      <c r="A46" s="22">
+        <v>62</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" s="22" customFormat="1">
+      <c r="C47" s="27"/>
+      <c r="D47" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="25" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5">
+        <v>129</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1">
+      <c r="A49" s="22">
+        <v>130</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="D51" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="F52" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D51:H51"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="50" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ORNITHOLOGY</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -10778,7 +11830,7 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -11664,7 +12716,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
   </headerFooter>
@@ -12534,7 +13586,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - MODELS</oddHeader>
   </headerFooter>
@@ -13592,7 +14644,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - SCIENTIFIC HISTORY</oddHeader>
   </headerFooter>
@@ -14749,7 +15801,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - ANTHROPOLOGY</oddHeader>
   </headerFooter>
@@ -14763,7 +15815,7 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -15897,7 +16949,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="46" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
   </headerFooter>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">HERB!$D$1:$H$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">MALA!$B$1:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">HERB!$D$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">MALA!$B$1:$H$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">REPTILE!$C$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">BIRD!$1:$1</definedName>
@@ -43,12 +43,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MAMM!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">REPTILE!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="650">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -2460,21 +2460,9 @@
     <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record has been compared to CHAS…"</t>
   </si>
   <si>
-    <t>cleaned, but did not add content for rows that are missing dates</t>
-  </si>
-  <si>
-    <t>Needs to map to taxon authorities from FMNH (which we do not have yet) - do not delete taxonomy columns until we have done this.</t>
-  </si>
-  <si>
-    <t>Needs to be cleaned, and filled in where necessary.</t>
-  </si>
-  <si>
     <t>The agent who last updated the record (pre-Arctos migration)</t>
   </si>
   <si>
-    <t>currently empty</t>
-  </si>
-  <si>
     <t>will add content as it is pulled from other columns; aggregate content into sub columns per the appropriate category (e.g. display notes)</t>
   </si>
   <si>
@@ -2506,9 +2494,6 @@
   </si>
   <si>
     <t>"adult," "juvenile," "adult, juvenile," "immature," "egg"</t>
-  </si>
-  <si>
-    <t>Needs to be standardized and cleaned, and Arctos CT needs to be populated</t>
   </si>
   <si>
     <r>
@@ -3025,15 +3010,9 @@
     <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record has been compared to CHAS…" and "Originally inventoried in [spreadsheet name]"</t>
   </si>
   <si>
-    <t>Must be unique, needs attention; deal with duplicate #s (EK added brackets so that trailing zeroes won't get cut off in the future)</t>
-  </si>
-  <si>
     <t>See 'Mala_ACCNMatch_[date].xlxs'</t>
   </si>
   <si>
-    <t>Need to fill in standard message for blank cells after data matching process</t>
-  </si>
-  <si>
     <t>Need to clean timestamp pre-migration</t>
   </si>
   <si>
@@ -3134,6 +3113,93 @@
   </si>
   <si>
     <t>"in collection," "missing"</t>
+  </si>
+  <si>
+    <t>Mala_CATMatch additional info</t>
+  </si>
+  <si>
+    <t>CAT - Col Num: added 400 values in 371 rows</t>
+  </si>
+  <si>
+    <t>CAT - Sex: added 85 values in 85 rows</t>
+  </si>
+  <si>
+    <t>Cat - Age: added 1000 values in 1000 rows</t>
+  </si>
+  <si>
+    <t>CAT - Number of Specimens: added 9023 values in 9023 rows</t>
+  </si>
+  <si>
+    <t>CAT - Collected By: added 1840 values in 1840 rows</t>
+  </si>
+  <si>
+    <t>CAT - Date of Collection: added 1932 values to 1932 rows</t>
+  </si>
+  <si>
+    <t>CAT - Accn: added or improved 960 rows (added 598, resolved 362)</t>
+  </si>
+  <si>
+    <t>CAT - Locality: added new information to geog fields for 500 rows (61 with no geog info whatsoever)</t>
+  </si>
+  <si>
+    <t>cleaned, but need to add beginning/end dates for collector ranges</t>
+  </si>
+  <si>
+    <t>Currently parsed into columns by level</t>
+  </si>
+  <si>
+    <t>need to clean and assign for others</t>
+  </si>
+  <si>
+    <t>Container Label</t>
+  </si>
+  <si>
+    <t>nothing here currently</t>
+  </si>
+  <si>
+    <t>needs cleaning</t>
+  </si>
+  <si>
+    <t>should be clean, need to double check prior to migration</t>
+  </si>
+  <si>
+    <t>initially populated and cleaned, need to check against verbatim locality prior to migration</t>
+  </si>
+  <si>
+    <t>currently have data history, internal remarks, Remarks, and Collection Name--needs MUCH cleaning</t>
+  </si>
+  <si>
+    <t>GSW columns</t>
+  </si>
+  <si>
+    <t>Research Project Use</t>
+  </si>
+  <si>
+    <t>Must be unique, needs attention; deal with duplicate #s</t>
+  </si>
+  <si>
+    <t>See 'Mala_TAXONMatch_[date].xlxs'</t>
+  </si>
+  <si>
+    <t>ADD CAT - Identification here (ccurently in a separate column)</t>
+  </si>
+  <si>
+    <t>Need to fill in standard message for blank cells after data matching process; Need to add CAT - Locality</t>
+  </si>
+  <si>
+    <t>Need to fill</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_DET_METHOD_2</t>
+  </si>
+  <si>
+    <t>Phrase "transcribed from Original Catalog Books" used to note when information came from catalog book vs. inventory data</t>
+  </si>
+  <si>
+    <t>Needs to be standardized and cleaned</t>
+  </si>
+  <si>
+    <t>"adult," "gerontic", "immature," "larva"</t>
   </si>
 </sst>
 </file>
@@ -4226,7 +4292,7 @@
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -6596,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -6615,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>3</v>
@@ -6639,7 +6705,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="39" t="s">
@@ -6656,7 +6722,7 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="39" t="s">
@@ -6668,7 +6734,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>5</v>
@@ -6692,7 +6758,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>6</v>
@@ -6722,7 +6788,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="39" t="s">
@@ -6814,7 +6880,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -6836,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -6926,7 +6992,7 @@
         <v>126</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>162</v>
@@ -6966,7 +7032,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>167</v>
@@ -6996,7 +7062,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>29</v>
@@ -7026,7 +7092,7 @@
         <v>126</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>174</v>
@@ -7099,7 +7165,7 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="39" t="s">
@@ -7116,7 +7182,7 @@
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="39" t="s">
@@ -7144,7 +7210,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="39" t="s">
@@ -7158,7 +7224,7 @@
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="39" t="s">
@@ -7186,7 +7252,7 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="39" t="s">
@@ -7200,7 +7266,7 @@
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="39" t="s">
@@ -7221,7 +7287,7 @@
         <v>350</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>478</v>
@@ -7243,7 +7309,7 @@
         <v>183</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>395</v>
@@ -7259,10 +7325,10 @@
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="21" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>458</v>
@@ -7280,7 +7346,7 @@
         <v>126</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="34" t="s">
@@ -7299,7 +7365,7 @@
         <v>126</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>188</v>
@@ -7407,7 +7473,7 @@
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="21" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>384</v>
@@ -7426,7 +7492,7 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>162</v>
@@ -7467,7 +7533,7 @@
         <v>476</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>466</v>
@@ -7520,7 +7586,7 @@
         <v>126</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>222</v>
@@ -7559,10 +7625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7647,7 +7713,7 @@
         <v>127</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -7663,7 +7729,7 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
@@ -7718,16 +7784,18 @@
         <v>161</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="25.5">
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -7740,7 +7808,7 @@
         <v>163</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
@@ -7779,7 +7847,7 @@
         <v>162</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
@@ -7797,302 +7865,284 @@
         <v>388</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
-      <c r="A13" s="22">
+      <c r="C13" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1">
+      <c r="C14" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" s="22" customFormat="1">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="11" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="21" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
-      <c r="A14" s="22">
+      <c r="H15" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="11" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="E16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="25.5">
-      <c r="A15" s="5">
+      <c r="H16" s="24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.5">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="E17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="5">
+      <c r="G17" s="22"/>
+      <c r="H17" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>626</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C18" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="E18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="24" t="s">
-        <v>609</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A19" s="22">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="22" customFormat="1" ht="60">
+      <c r="A20" s="22">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A21" s="22">
         <v>18</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A20" s="22">
-        <v>28</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="22" customFormat="1">
-      <c r="A21" s="22">
-        <v>29</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="22" customFormat="1">
+        <v>145</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A22" s="22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1">
       <c r="A23" s="22">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F23" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>619</v>
+        <v>390</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="22" customFormat="1">
       <c r="A24" s="22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>620</v>
+        <v>167</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="22" customFormat="1">
       <c r="A25" s="22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>135</v>
+        <v>617</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
       <c r="A26" s="22">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F26" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>162</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="22" customFormat="1">
       <c r="A27" s="22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F27" s="22" t="s">
         <v>338</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>135</v>
@@ -8100,30 +8150,30 @@
     </row>
     <row r="28" spans="1:9" s="22" customFormat="1">
       <c r="A28" s="22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>162</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="22" customFormat="1">
       <c r="A29" s="22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="22" t="s">
@@ -8138,383 +8188,444 @@
     </row>
     <row r="30" spans="1:9" s="22" customFormat="1">
       <c r="A30" s="22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="22" t="s">
-        <v>177</v>
+        <v>429</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="5">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="22" customFormat="1">
+      <c r="A31" s="22">
+        <v>38</v>
+      </c>
+      <c r="C31" s="27"/>
       <c r="D31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" s="22" customFormat="1" ht="25.5">
+        <v>34</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="22" customFormat="1">
       <c r="A32" s="22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="22" customFormat="1">
-      <c r="A33" s="22">
-        <v>44</v>
-      </c>
-      <c r="C33" s="27"/>
+        <v>177</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="60">
+      <c r="A33" s="5">
+        <v>42</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>638</v>
+      </c>
       <c r="D33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="22" customFormat="1">
+        <v>38</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="A34" s="22">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="11" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="22" customFormat="1" ht="25.5">
+        <v>470</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="22" customFormat="1">
       <c r="A35" s="22">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>621</v>
+        <v>324</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="22" customFormat="1">
       <c r="A36" s="22">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="22" customFormat="1">
+    <row r="37" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="A37" s="22">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="11" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45">
-      <c r="A38" s="5">
-        <v>52</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>625</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="22" customFormat="1">
+      <c r="A38" s="22">
+        <v>47</v>
+      </c>
+      <c r="C38" s="27"/>
       <c r="D38" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" s="22" customFormat="1" ht="30">
+        <v>42</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="22" customFormat="1">
       <c r="A39" s="22">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="22" customFormat="1">
-      <c r="A40" s="22">
-        <v>55</v>
-      </c>
-      <c r="C40" s="27"/>
+        <v>132</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45">
+      <c r="A40" s="5">
+        <v>52</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>618</v>
+      </c>
       <c r="D40" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F40" s="21" t="s">
-        <v>182</v>
+        <v>511</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="22" customFormat="1" ht="25.5">
+        <v>605</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A41" s="22">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A42" s="22">
+        <v>55</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A43" s="22">
+        <v>56</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="21" t="s">
+      <c r="E43" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="22" customFormat="1">
-      <c r="A42" s="22">
-        <v>57</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5">
-        <v>58</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G43" s="21"/>
       <c r="H43" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="I43" s="10"/>
+        <v>606</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
-      <c r="A44" s="22">
-        <v>66</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="C44" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>135</v>
-      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:9" s="22" customFormat="1">
       <c r="A45" s="22">
-        <v>67</v>
-      </c>
-      <c r="C45" s="27"/>
+        <v>57</v>
+      </c>
       <c r="D45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F45" s="22" t="s">
-        <v>194</v>
+        <v>358</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>620</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="22" customFormat="1">
-      <c r="A46" s="22">
-        <v>62</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="24"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5">
+        <v>58</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" s="22" customFormat="1">
+      <c r="A47" s="22">
+        <v>66</v>
+      </c>
       <c r="C47" s="27"/>
       <c r="D47" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="22" customFormat="1">
+      <c r="A48" s="22">
+        <v>67</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="22" customFormat="1">
+      <c r="A49" s="22">
+        <v>62</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" s="22" customFormat="1">
+      <c r="C50" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="25" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5">
+      <c r="E50" s="12"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="25" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5">
         <v>129</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="C51" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F51" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" s="22" customFormat="1">
-      <c r="A49" s="22">
+      <c r="G51" s="21"/>
+      <c r="H51" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" s="22" customFormat="1">
+      <c r="A52" s="22">
         <v>130</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="11" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="22" t="s">
+      <c r="E52" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G52" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H49" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="D51" s="49" t="s">
+      <c r="H52" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="D54" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="F52" s="27"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="F55" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D54:H54"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8532,8 +8643,8 @@
   </sheetPr>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B56" sqref="A56:XFD56"/>
+    <sheetView topLeftCell="B16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9891,7 +10002,7 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -12458,7 +12569,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>186</v>
@@ -12823,7 +12934,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>368</v>
@@ -12856,7 +12967,7 @@
         <v>325</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>135</v>
@@ -12916,7 +13027,7 @@
         <v>386</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -12936,7 +13047,7 @@
         <v>162</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1" ht="30">
@@ -12953,7 +13064,7 @@
         <v>388</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1">
@@ -12985,10 +13096,10 @@
         <v>126</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>368</v>
@@ -13005,7 +13116,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24" t="s">
@@ -13024,7 +13135,7 @@
         <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="25" t="s">
@@ -13043,10 +13154,10 @@
         <v>126</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>135</v>
@@ -13063,7 +13174,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>135</v>
@@ -13080,7 +13191,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>135</v>
@@ -13097,7 +13208,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -13154,13 +13265,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="22" customFormat="1">
@@ -13177,7 +13288,7 @@
         <v>338</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>135</v>
@@ -13194,7 +13305,7 @@
         <v>126</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>162</v>
@@ -13217,7 +13328,7 @@
         <v>338</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>135</v>
@@ -13252,7 +13363,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="26" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>451</v>
@@ -13313,7 +13424,7 @@
         <v>190</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="25.5">
@@ -13327,13 +13438,13 @@
         <v>126</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="22" customFormat="1" ht="30">
@@ -13350,10 +13461,10 @@
         <v>358</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="22" customFormat="1">
@@ -13365,10 +13476,10 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="22" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="22" customFormat="1">
@@ -13398,10 +13509,10 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="22" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13452,7 +13563,7 @@
         <v>383</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1">
@@ -13485,7 +13596,7 @@
         <v>329</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>135</v>
@@ -13500,10 +13611,10 @@
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="22" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>135</v>
@@ -13536,7 +13647,7 @@
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>135</v>
@@ -13556,7 +13667,7 @@
         <v>337</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -13697,10 +13808,10 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G5" s="24"/>
     </row>
@@ -13716,7 +13827,7 @@
         <v>324</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>135</v>
@@ -13753,7 +13864,7 @@
         <v>126</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>161</v>
@@ -13808,7 +13919,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>343</v>
@@ -13868,13 +13979,13 @@
         <v>126</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G14" s="24"/>
     </row>
@@ -13892,7 +14003,7 @@
         <v>277</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -13907,10 +14018,10 @@
         <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G16" s="24"/>
     </row>
@@ -13964,13 +14075,13 @@
         <v>126</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G19" s="24"/>
     </row>
@@ -13985,7 +14096,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -14045,13 +14156,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G23" s="24"/>
     </row>
@@ -14069,7 +14180,7 @@
         <v>338</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>135</v>
@@ -14106,10 +14217,10 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="26" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -14151,7 +14262,7 @@
         <v>347</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G28" s="24"/>
     </row>
@@ -14164,13 +14275,13 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="22" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>190</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G29" s="24"/>
     </row>
@@ -14188,7 +14299,7 @@
         <v>361</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -14209,7 +14320,7 @@
         <v>188</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G31" s="23"/>
     </row>
@@ -14222,10 +14333,10 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="22" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -14257,10 +14368,10 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="22" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G34" s="23"/>
     </row>
@@ -14311,7 +14422,7 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="22" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>128</v>
@@ -14349,7 +14460,7 @@
         <v>329</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>135</v>
@@ -14365,10 +14476,10 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="22" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>135</v>
@@ -14406,10 +14517,10 @@
         <v>329</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G42" s="24"/>
     </row>
@@ -14422,7 +14533,7 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="22" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>135</v>
@@ -14462,7 +14573,7 @@
         <v>337</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -15813,1145 +15924,1204 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="31"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="60.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="119.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="31"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="22" customFormat="1">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="22" customFormat="1">
+      <c r="H2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" ht="60">
+      <c r="H3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="35" t="s">
+        <v>641</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="24" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="25.5">
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1">
+    <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="H6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="22" customFormat="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>592</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="60">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:9" s="22" customFormat="1">
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="H10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="22" customFormat="1">
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
+    <row r="12" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="H12" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="24" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22"/>
+      <c r="H15" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="30">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="G16" s="22"/>
+      <c r="H16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="G17" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="24" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="G18" s="21"/>
+      <c r="H18" s="24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:9" s="22" customFormat="1">
       <c r="A20" s="22">
         <v>28</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>497</v>
+      <c r="E20" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="H20" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1">
+    <row r="21" spans="1:9" s="22" customFormat="1">
       <c r="A21" s="22">
         <v>29</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1">
+    <row r="22" spans="1:9" s="22" customFormat="1">
       <c r="A22" s="22">
         <v>30</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="G22" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5">
+      <c r="H22" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="22" customFormat="1">
+      <c r="C23" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5">
         <v>32</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="C24" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" s="22" customFormat="1">
+      <c r="A25" s="22">
+        <v>33</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="22" customFormat="1">
+      <c r="A26" s="22">
+        <v>34</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="22" customFormat="1">
+      <c r="A27" s="22">
+        <v>33</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="22" customFormat="1">
+      <c r="A28" s="22">
+        <v>34</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="22" customFormat="1">
+      <c r="A29" s="22">
+        <v>33</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="22" customFormat="1">
+      <c r="A30" s="22">
+        <v>34</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="22" customFormat="1">
+      <c r="A31" s="22">
+        <v>41</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="63.75">
+      <c r="A32" s="5">
+        <v>42</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A33" s="22">
+        <v>43</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="22" customFormat="1">
+      <c r="A34" s="22">
+        <v>44</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="22" customFormat="1">
+      <c r="A35" s="22">
+        <v>45</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="C36" s="21"/>
+      <c r="D36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="22" customFormat="1">
+      <c r="C37" s="21"/>
+      <c r="D37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="22" customFormat="1">
+      <c r="C38" s="21"/>
+      <c r="D38" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="C39" s="21"/>
+      <c r="D39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="22" customFormat="1">
+      <c r="C40" s="21"/>
+      <c r="D40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1">
+      <c r="C41" s="21"/>
+      <c r="D41" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45">
+      <c r="A42" s="5">
+        <v>52</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A43" s="22">
+        <v>53</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="22" customFormat="1" ht="38.25">
+      <c r="A44" s="22">
+        <v>55</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="22" customFormat="1">
-      <c r="A24" s="22">
-        <v>33</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="G44" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="22" customFormat="1" ht="60">
+      <c r="A45" s="22">
+        <v>56</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A46" s="22">
+        <v>57</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5">
+        <v>58</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" s="22" customFormat="1">
+      <c r="A48" s="22">
+        <v>66</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="22" customFormat="1">
+      <c r="A49" s="22">
+        <v>67</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5">
+        <v>62</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="22" customFormat="1">
-      <c r="A25" s="22">
-        <v>34</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1">
-      <c r="A26" s="22">
-        <v>33</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="H50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:9" s="22" customFormat="1">
+      <c r="A51" s="22">
+        <v>73</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A52" s="22">
+        <v>74</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="22" customFormat="1">
+      <c r="A53" s="22">
+        <v>79</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="22" customFormat="1">
-      <c r="A27" s="22">
-        <v>34</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
-      <c r="A28" s="22">
-        <v>33</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="H53" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="22" customFormat="1">
+      <c r="C54" s="21"/>
+      <c r="D54" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" s="22" customFormat="1">
+      <c r="A55" s="22">
+        <v>80</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A56" s="22">
+        <v>81</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="22" customFormat="1">
+      <c r="A57" s="22">
+        <v>86</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
-      <c r="A29" s="22">
-        <v>34</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
-      <c r="A30" s="22">
-        <v>41</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="63.75">
-      <c r="A31" s="5">
-        <v>42</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>590</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A32" s="22">
-        <v>43</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="22" customFormat="1">
-      <c r="A33" s="22">
-        <v>44</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="22" customFormat="1">
-      <c r="A34" s="22">
-        <v>45</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="B35" s="21"/>
-      <c r="C35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="22" customFormat="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="B38" s="21"/>
-      <c r="C38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="22" customFormat="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="11" t="s">
+      <c r="H57" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="22" customFormat="1">
+      <c r="D58" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" ht="30">
+      <c r="A59" s="5">
+        <v>129</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" s="22" customFormat="1">
+      <c r="A60" s="22">
         <v>130</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45">
-      <c r="A41" s="5">
-        <v>52</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A42" s="22">
-        <v>53</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" ht="38.25">
-      <c r="A43" s="22">
-        <v>55</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="22" customFormat="1" ht="75">
-      <c r="A44" s="22">
-        <v>56</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="24" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A45" s="22">
-        <v>57</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="5">
-        <v>58</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" s="22" customFormat="1">
-      <c r="A47" s="22">
-        <v>66</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1">
-      <c r="A48" s="22">
-        <v>67</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="5">
-        <v>62</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" s="22" customFormat="1">
-      <c r="A50" s="22">
-        <v>73</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A51" s="22">
-        <v>74</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="22" customFormat="1">
-      <c r="A52" s="22">
-        <v>79</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="22" customFormat="1">
-      <c r="A53" s="22">
-        <v>80</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A54" s="22">
-        <v>81</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="22" customFormat="1">
-      <c r="A55" s="22">
-        <v>86</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
-      <c r="A56" s="5">
-        <v>129</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" s="22" customFormat="1">
-      <c r="A57" s="22">
-        <v>130</v>
-      </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="11" t="s">
+      <c r="C60" s="21"/>
+      <c r="D60" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="22" t="s">
+      <c r="E60" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="G60" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G57" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="C59" s="50" t="s">
+      <c r="H60" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="D62" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="21" t="s">
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="C63" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="F63" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="D62:H62"/>
   </mergeCells>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="39" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+    <oddHeader>&amp;CDATA DICTIONARY - MALACOLOGY</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -17003,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>0</v>
@@ -17024,7 +17194,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>1</v>
@@ -17089,7 +17259,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>271</v>
@@ -17109,7 +17279,7 @@
         <v>133</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>272</v>
@@ -17178,7 +17348,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="39" t="s">
@@ -17440,7 +17610,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>167</v>
@@ -17522,7 +17692,7 @@
         <v>126</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>174</v>
@@ -17563,7 +17733,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>174</v>
@@ -17604,7 +17774,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>174</v>
@@ -17684,7 +17854,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="39" t="s">
@@ -17702,7 +17872,7 @@
         <v>131</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="39" t="s">
@@ -17739,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="39" t="s">
@@ -17758,7 +17928,7 @@
         <v>132</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="39" t="s">
@@ -17795,7 +17965,7 @@
         <v>44</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="39" t="s">
@@ -17813,7 +17983,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="39" t="s">
@@ -17835,7 +18005,7 @@
         <v>126</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>289</v>
@@ -17923,7 +18093,7 @@
         <v>126</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>188</v>
@@ -17962,7 +18132,7 @@
         <v>52</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>289</v>
@@ -18043,7 +18213,7 @@
         <v>57</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>188</v>
@@ -18360,7 +18530,7 @@
         <v>126</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>222</v>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="651">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3010,9 +3010,6 @@
     <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record has been compared to CHAS…" and "Originally inventoried in [spreadsheet name]"</t>
   </si>
   <si>
-    <t>See 'Mala_ACCNMatch_[date].xlxs'</t>
-  </si>
-  <si>
     <t>Need to clean timestamp pre-migration</t>
   </si>
   <si>
@@ -3181,9 +3178,6 @@
     <t>See 'Mala_TAXONMatch_[date].xlxs'</t>
   </si>
   <si>
-    <t>ADD CAT - Identification here (ccurently in a separate column)</t>
-  </si>
-  <si>
     <t>Need to fill in standard message for blank cells after data matching process; Need to add CAT - Locality</t>
   </si>
   <si>
@@ -3200,6 +3194,15 @@
   </si>
   <si>
     <t>"adult," "gerontic", "immature," "larva"</t>
+  </si>
+  <si>
+    <t>ADD CAT - Identification here (currently in a separate column)</t>
+  </si>
+  <si>
+    <t>need to mark uncertainty for [unconfirmed] rows</t>
+  </si>
+  <si>
+    <t>cleaned, but need to add beginning/end dates for collector ranges, and accession dates?</t>
   </si>
 </sst>
 </file>
@@ -7713,7 +7716,7 @@
         <v>127</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -7729,7 +7732,7 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
@@ -7784,7 +7787,7 @@
         <v>161</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -7793,7 +7796,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>6</v>
@@ -7808,7 +7811,7 @@
         <v>163</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
@@ -7847,7 +7850,7 @@
         <v>162</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
@@ -7865,12 +7868,12 @@
         <v>388</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="C13" s="27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -7878,7 +7881,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1">
       <c r="C14" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -7900,7 +7903,7 @@
         <v>423</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1" ht="45">
@@ -7921,7 +7924,7 @@
         <v>279</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5">
@@ -7939,7 +7942,7 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -7948,7 +7951,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>12</v>
@@ -7961,7 +7964,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -7970,7 +7973,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>13</v>
@@ -7985,7 +7988,7 @@
         <v>305</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1" ht="60">
@@ -7993,7 +7996,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>14</v>
@@ -8006,7 +8009,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1" ht="45">
@@ -8027,7 +8030,7 @@
         <v>280</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="30">
@@ -8100,10 +8103,10 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
@@ -8124,7 +8127,7 @@
         <v>162</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="22" customFormat="1">
@@ -8164,7 +8167,7 @@
         <v>162</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="22" customFormat="1">
@@ -8202,7 +8205,7 @@
         <v>162</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1">
@@ -8239,7 +8242,7 @@
         <v>177</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>135</v>
@@ -8250,7 +8253,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>38</v>
@@ -8260,7 +8263,7 @@
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -8277,7 +8280,7 @@
         <v>470</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="22" customFormat="1">
@@ -8328,7 +8331,7 @@
         <v>179</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1">
@@ -8371,7 +8374,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>45</v>
@@ -8386,7 +8389,7 @@
         <v>380</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -8416,7 +8419,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>302</v>
@@ -8429,7 +8432,7 @@
         <v>190</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -8450,12 +8453,12 @@
         <v>186</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
       <c r="C44" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
@@ -8477,10 +8480,10 @@
         <v>358</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -8488,7 +8491,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>51</v>
@@ -8498,7 +8501,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -8534,7 +8537,7 @@
         <v>194</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="22" customFormat="1">
@@ -8559,7 +8562,7 @@
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1">
       <c r="C50" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>282</v>
@@ -8568,7 +8571,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8576,7 +8579,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>122</v>
@@ -8586,7 +8589,7 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I51" s="10"/>
     </row>
@@ -15927,9 +15930,9 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15948,7 +15951,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>474</v>
@@ -16012,7 +16015,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -16031,7 +16034,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="11" t="s">
@@ -16082,10 +16085,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>586</v>
+        <v>627</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>649</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>5</v>
@@ -16109,7 +16112,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -16189,7 +16192,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>125</v>
@@ -16231,10 +16234,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -16251,12 +16254,12 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>12</v>
@@ -16278,7 +16281,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>13</v>
@@ -16301,7 +16304,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>14</v>
@@ -16314,7 +16317,7 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
@@ -16322,10 +16325,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>15</v>
@@ -16369,7 +16372,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>25</v>
@@ -16407,7 +16410,7 @@
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1">
       <c r="C23" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>282</v>
@@ -16420,7 +16423,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>28</v>
@@ -16439,10 +16442,10 @@
         <v>33</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>29</v>
@@ -16451,7 +16454,7 @@
         <v>126</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>162</v>
@@ -16486,7 +16489,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>31</v>
@@ -16495,7 +16498,7 @@
         <v>126</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>162</v>
@@ -16530,7 +16533,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>33</v>
@@ -16539,7 +16542,7 @@
         <v>126</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>162</v>
@@ -16803,7 +16806,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>502</v>
@@ -16940,7 +16943,7 @@
         <v>74</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="11" t="s">
@@ -16979,11 +16982,11 @@
     <row r="54" spans="1:9" s="22" customFormat="1">
       <c r="C54" s="21"/>
       <c r="D54" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H54" s="23"/>
     </row>
@@ -17011,10 +17014,10 @@
         <v>81</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>74</v>
@@ -17024,7 +17027,7 @@
         <v>476</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>466</v>
@@ -17050,11 +17053,11 @@
     </row>
     <row r="58" spans="1:9" s="22" customFormat="1">
       <c r="D58" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -17063,7 +17066,7 @@
         <v>129</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>122</v>
@@ -17073,7 +17076,7 @@
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I59" s="2"/>
     </row>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -3133,9 +3133,6 @@
     <t>CAT - Date of Collection: added 1932 values to 1932 rows</t>
   </si>
   <si>
-    <t>CAT - Accn: added or improved 960 rows (added 598, resolved 362)</t>
-  </si>
-  <si>
     <t>CAT - Locality: added new information to geog fields for 500 rows (61 with no geog info whatsoever)</t>
   </si>
   <si>
@@ -3203,6 +3200,9 @@
   </si>
   <si>
     <t>cleaned, but need to add beginning/end dates for collector ranges, and accession dates?</t>
+  </si>
+  <si>
+    <t>CAT - Accn: added or improved 960 rows (added 598, resolved 362); Sam added 313 ACCN numbers(incl. 7 where cat # and accn # were swapped) and reviewed 1985 total specimens but couldn't match # to all of these</t>
   </si>
 </sst>
 </file>
@@ -7796,7 +7796,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>6</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="C13" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1">
       <c r="C14" s="27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -7973,7 +7973,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>13</v>
@@ -7996,7 +7996,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>14</v>
@@ -8253,7 +8253,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>38</v>
@@ -8419,7 +8419,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>302</v>
@@ -8458,7 +8458,7 @@
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
       <c r="C44" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
@@ -8491,7 +8491,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>51</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1">
       <c r="C50" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>282</v>
@@ -8579,7 +8579,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>122</v>
@@ -15929,10 +15929,10 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16015,7 +16015,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -16080,15 +16080,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>5</v>
@@ -16112,7 +16112,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -16192,7 +16192,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>125</v>
@@ -16237,7 +16237,7 @@
         <v>626</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -16259,7 +16259,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>12</v>
@@ -16325,10 +16325,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>15</v>
@@ -16410,7 +16410,7 @@
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1">
       <c r="C23" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>282</v>
@@ -16423,7 +16423,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>28</v>
@@ -16982,11 +16982,11 @@
     <row r="54" spans="1:9" s="22" customFormat="1">
       <c r="C54" s="21"/>
       <c r="D54" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H54" s="23"/>
     </row>
@@ -17017,7 +17017,7 @@
         <v>623</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>74</v>
@@ -17027,7 +17027,7 @@
         <v>476</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>466</v>
@@ -17053,11 +17053,11 @@
     </row>
     <row r="58" spans="1:9" s="22" customFormat="1">
       <c r="D58" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H58" s="23"/>
     </row>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -16,8 +16,9 @@
     <sheet name="EH - Anthro" sheetId="6" r:id="rId7"/>
     <sheet name="MALA" sheetId="11" r:id="rId8"/>
     <sheet name="REPTILE" sheetId="15" r:id="rId9"/>
-    <sheet name="ENTO - Coleoptera" sheetId="17" r:id="rId10"/>
-    <sheet name="HERB" sheetId="19" r:id="rId11"/>
+    <sheet name="ENTO - Non Insect" sheetId="20" r:id="rId10"/>
+    <sheet name="ENTO - Coleoptera" sheetId="17" r:id="rId11"/>
+    <sheet name="HERB" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BIRD!$B$1:$F$110</definedName>
@@ -25,9 +26,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'EH - Anthro'!$B$1:$F$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'EH - Model'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Non Insect'!$C$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">HERB!$D$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">HERB!$D$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">MALA!$B$1:$H$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">REPTILE!$C$1:$G$70</definedName>
@@ -36,9 +38,10 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'EH - Anthro'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'EH - Model'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'EH - Sci Hist'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'ENTO - Coleoptera'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'ENTO - Coleoptera'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'ENTO - Non Insect'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">FISH!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">HERB!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">HERB!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">MALA!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MAMM!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">REPTILE!$1:$1</definedName>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="681">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3204,12 +3207,123 @@
   <si>
     <t>CAT - Accn: added or improved 960 rows (added 598, resolved 362); Sam added 313 ACCN numbers(incl. 7 where cat # and accn # were swapped) and reviewed 1985 total specimens but couldn't match # to all of these</t>
   </si>
+  <si>
+    <t>FIC matching resulted in 45 resolutions</t>
+  </si>
+  <si>
+    <t>Collector 1, Collector 2</t>
+  </si>
+  <si>
+    <t>Locality (original, complete), Ecology, Habitat</t>
+  </si>
+  <si>
+    <t>Descriptions/ Measurements</t>
+  </si>
+  <si>
+    <t>Lot Number</t>
+  </si>
+  <si>
+    <t>Number of Specimens from Records, Number of Specimens Verified</t>
+  </si>
+  <si>
+    <t>Verified/ Catalogued By, Date Verified / Catalogued (mm/dd/yyyy), Record Updated By, Date Record Updated (mm/dd/yyyy), Remarks</t>
+  </si>
+  <si>
+    <t>"CHAS:Ento"</t>
+  </si>
+  <si>
+    <t>"CHAS:Inv"</t>
+  </si>
+  <si>
+    <t>For non-legacy identifications, the agent who last identified the specimen is named here, otherwise 'unknown'</t>
+  </si>
+  <si>
+    <t>Common Name, Determined By, Date</t>
+  </si>
+  <si>
+    <t>Verbatim value of attribute, which includes more information in this dataset than the value formatted for the code table</t>
+  </si>
+  <si>
+    <t>Second collector or preparator, if present</t>
+  </si>
+  <si>
+    <t>"adult," "juvenile," "adult, juvenile"</t>
+  </si>
+  <si>
+    <t>CHAS entomology specimens may be maintained as lots, so this is often a number  &gt;1</t>
+  </si>
+  <si>
+    <t>Notes on the habitat specimen was collected in</t>
+  </si>
+  <si>
+    <t>Ecology, Habitat</t>
+  </si>
+  <si>
+    <t>"no specific locality recorded"</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>MAXIMUM_ELEVATION</t>
+  </si>
+  <si>
+    <t>MINIMUM_ELEVATION</t>
+  </si>
+  <si>
+    <t>ORIG_ELEV_UNITS</t>
+  </si>
+  <si>
+    <t>Minimum elevation of collecting locality, where provided</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>"ft"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[see code table for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTORIG_ELEV_UNITS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>don't need</t>
+  </si>
+  <si>
+    <t>e.g. [Good. Limbs severed.]</t>
+  </si>
+  <si>
+    <t>"in collection," "missing," "on exhibit," "discarded"</t>
+  </si>
+  <si>
+    <t>VERIFY POST-MIGRATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3439,6 +3553,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3800,7 +3936,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3946,11 +4082,26 @@
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4295,8 +4446,8 @@
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B70" sqref="A70:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6559,11 +6710,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -6588,8 +6739,1042 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1">
+      <c r="B24" s="36"/>
+      <c r="C24" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1">
+      <c r="B25" s="36"/>
+      <c r="C25" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1">
+      <c r="A26" s="5">
+        <v>23</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1">
+      <c r="A27" s="22">
+        <v>33</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1">
+      <c r="A28" s="22">
+        <v>34</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1">
+      <c r="A29" s="22">
+        <v>33</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1">
+      <c r="A30" s="22">
+        <v>34</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1">
+      <c r="A31" s="22">
+        <v>41</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1" ht="38.25">
+      <c r="A32" s="22">
+        <v>42</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A33" s="22">
+        <v>52</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="22">
+        <v>53</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="38.25">
+      <c r="A35" s="22">
+        <v>55</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A36" s="22">
+        <v>56</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A37" s="22">
+        <v>57</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1">
+      <c r="A38" s="22">
+        <v>58</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1">
+      <c r="A39" s="22">
+        <v>66</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1">
+      <c r="A40" s="22">
+        <v>67</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1">
+      <c r="A41" s="22">
+        <v>62</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1">
+      <c r="A42" s="22">
+        <v>73</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A43" s="22">
+        <v>74</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="22" customFormat="1">
+      <c r="A44" s="22">
+        <v>69</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="49" customFormat="1">
+      <c r="A45" s="49">
+        <v>70</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="G45" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="49" customFormat="1">
+      <c r="A46" s="49">
+        <v>71</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="G46" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1">
+      <c r="A47" s="22">
+        <v>79</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1">
+      <c r="A48" s="22">
+        <v>80</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A49" s="22">
+        <v>81</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1">
+      <c r="A50" s="22">
+        <v>69</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="22" customFormat="1">
+      <c r="A51" s="22">
+        <v>86</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="22" customFormat="1">
+      <c r="A52" s="22">
+        <v>129</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="G52" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1">
+      <c r="A53" s="22">
+        <v>130</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="E56" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C55:G55"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7599,13 +8784,13 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="27"/>
@@ -7623,7 +8808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8615,13 +9800,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -8647,7 +9832,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9822,11 +11007,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -10005,8 +11190,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11913,13 +13098,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -12813,13 +13998,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -12844,7 +14029,7 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -13683,13 +14868,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -14587,13 +15772,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -15744,13 +16929,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -15929,10 +17114,10 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16014,6 +17199,9 @@
       <c r="A4" s="22">
         <v>3</v>
       </c>
+      <c r="B4" s="22" t="s">
+        <v>651</v>
+      </c>
       <c r="C4" s="35" t="s">
         <v>639</v>
       </c>
@@ -16587,7 +17775,7 @@
         <v>177</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>492</v>
+        <v>659</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>135</v>
@@ -17102,13 +18290,13 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
     </row>
     <row r="63" spans="1:9">
       <c r="C63" s="21" t="s">
@@ -18550,11 +19738,11 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="EH - Model" sheetId="13" r:id="rId5"/>
     <sheet name="EH - Sci Hist" sheetId="18" r:id="rId6"/>
     <sheet name="EH - Anthro" sheetId="6" r:id="rId7"/>
-    <sheet name="MALA" sheetId="11" r:id="rId8"/>
-    <sheet name="REPTILE" sheetId="15" r:id="rId9"/>
-    <sheet name="ENTO - Non Insect" sheetId="20" r:id="rId10"/>
+    <sheet name="ENTO - Non Insect" sheetId="20" r:id="rId8"/>
+    <sheet name="MALA" sheetId="11" r:id="rId9"/>
+    <sheet name="REPTILE" sheetId="15" r:id="rId10"/>
     <sheet name="ENTO - Coleoptera" sheetId="17" r:id="rId11"/>
     <sheet name="HERB" sheetId="19" r:id="rId12"/>
   </sheets>
@@ -27,31 +27,31 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'EH - Model'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Non Insect'!$C$1:$G$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'ENTO - Non Insect'!$B$1:$F$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">HERB!$D$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">MALA!$B$1:$H$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">MALA!$B$1:$H$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">REPTILE!$C$1:$G$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">REPTILE!$C$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">BIRD!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EGG!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'EH - Anthro'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'EH - Model'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'EH - Sci Hist'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'ENTO - Coleoptera'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'ENTO - Non Insect'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'ENTO - Non Insect'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">FISH!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">HERB!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">MALA!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">MALA!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MAMM!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">REPTILE!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">REPTILE!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="685">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -2466,9 +2466,6 @@
     <t>The agent who last updated the record (pre-Arctos migration)</t>
   </si>
   <si>
-    <t>will add content as it is pulled from other columns; aggregate content into sub columns per the appropriate category (e.g. display notes)</t>
-  </si>
-  <si>
     <t>e.g. "whole organism (alcohol)," whole organism (dry)"</t>
   </si>
   <si>
@@ -2478,9 +2475,6 @@
     <t>Concatenated storage location, e.g. "RVWD: 305: Mala Cab 03: Tray 12"</t>
   </si>
   <si>
-    <t>confirm unique part locations</t>
-  </si>
-  <si>
     <t>[BLDG: ROOM: CABINET: TRAY]</t>
   </si>
   <si>
@@ -2488,9 +2482,6 @@
   </si>
   <si>
     <t>Much verification needed. Clean columns: Number of Pieces, Number of Specimens from Records, Number of Specimens Verified, Re-verified from drawer</t>
-  </si>
-  <si>
-    <t>Needs much cleaning</t>
   </si>
   <si>
     <t>Assumed to be collector unless otherwise stated; for "not recorded" the determiner is typically "Erica Krimmel"</t>
@@ -3013,9 +3004,6 @@
     <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record has been compared to CHAS…" and "Originally inventoried in [spreadsheet name]"</t>
   </si>
   <si>
-    <t>Need to clean timestamp pre-migration</t>
-  </si>
-  <si>
     <t>cleaned first pass</t>
   </si>
   <si>
@@ -3031,9 +3019,6 @@
     <t>Locality (original, complete), City, Locality Station, Locality Stratum</t>
   </si>
   <si>
-    <t>Much work needed. Clean columns: Specimen Description, Habitat</t>
-  </si>
-  <si>
     <t>Specimen Description, Habitat</t>
   </si>
   <si>
@@ -3139,9 +3124,6 @@
     <t>CAT - Locality: added new information to geog fields for 500 rows (61 with no geog info whatsoever)</t>
   </si>
   <si>
-    <t>cleaned, but need to add beginning/end dates for collector ranges</t>
-  </si>
-  <si>
     <t>Currently parsed into columns by level</t>
   </si>
   <si>
@@ -3175,36 +3157,18 @@
     <t>Must be unique, needs attention; deal with duplicate #s</t>
   </si>
   <si>
-    <t>See 'Mala_TAXONMatch_[date].xlxs'</t>
-  </si>
-  <si>
     <t>Need to fill in standard message for blank cells after data matching process; Need to add CAT - Locality</t>
   </si>
   <si>
-    <t>Need to fill</t>
-  </si>
-  <si>
     <t>ATTRIBUTE_DET_METHOD_2</t>
   </si>
   <si>
     <t>Phrase "transcribed from Original Catalog Books" used to note when information came from catalog book vs. inventory data</t>
   </si>
   <si>
-    <t>Needs to be standardized and cleaned</t>
-  </si>
-  <si>
     <t>"adult," "gerontic", "immature," "larva"</t>
   </si>
   <si>
-    <t>ADD CAT - Identification here (currently in a separate column)</t>
-  </si>
-  <si>
-    <t>need to mark uncertainty for [unconfirmed] rows</t>
-  </si>
-  <si>
-    <t>cleaned, but need to add beginning/end dates for collector ranges, and accession dates?</t>
-  </si>
-  <si>
     <t>CAT - Accn: added or improved 960 rows (added 598, resolved 362); Sam added 313 ACCN numbers(incl. 7 where cat # and accn # were swapped) and reviewed 1985 total specimens but couldn't match # to all of these</t>
   </si>
   <si>
@@ -3260,9 +3224,6 @@
   </si>
   <si>
     <t>"no specific locality recorded"</t>
-  </si>
-  <si>
-    <t>assign</t>
   </si>
   <si>
     <t>MAXIMUM_ELEVATION</t>
@@ -3307,23 +3268,95 @@
     </r>
   </si>
   <si>
-    <t>don't need</t>
-  </si>
-  <si>
     <t>e.g. [Good. Limbs severed.]</t>
   </si>
   <si>
     <t>"in collection," "missing," "on exhibit," "discarded"</t>
   </si>
   <si>
-    <t>VERIFY POST-MIGRATION</t>
+    <t>Date of attribute determination, which here is the date of data migration</t>
+  </si>
+  <si>
+    <t>Date of attribute determination, either the ENDED_DATE or, for values of "not recorded" then the date of data migration</t>
+  </si>
+  <si>
+    <t>Unknown Numbers, Field/ Collector #, Old CHAS #, Remarks</t>
+  </si>
+  <si>
+    <t>need to mark uncertainty for [unconfirmed] rows; wrap remarks into object remarks</t>
+  </si>
+  <si>
+    <t>See 'Mala_TAXONMatch_[date].xlxs'; need to do MUCH work</t>
+  </si>
+  <si>
+    <t>Common Name, Remarks</t>
+  </si>
+  <si>
+    <t>need to clean - where does depth go?</t>
+  </si>
+  <si>
+    <t>Need to fill ?</t>
+  </si>
+  <si>
+    <t>may need to edit based on display notes</t>
+  </si>
+  <si>
+    <t>SAM cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM is preparing content for </t>
+  </si>
+  <si>
+    <t>"male," "female," "not recorded," "sexes mixed"</t>
+  </si>
+  <si>
+    <t>Verbatim age recorded here, as it varies much from the controlled vocabulary</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_DET_METHOD_3</t>
+  </si>
+  <si>
+    <t>need value for "egg" / how to deal with multiple attribute values, e.g. adult + eggs?</t>
+  </si>
+  <si>
+    <t>Needs cleaning and merging w/ Sam's data</t>
+  </si>
+  <si>
+    <t>clean HW Cory, Internal, Provenance; add to collection, cat num, catalog book match</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_DET_METHOD_4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primarily used for "age class" where the specimen had more than one age class present. Use term that best reflects original collector's description; [see code table </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGE_CLASS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3553,28 +3586,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3936,7 +3947,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4049,9 +4060,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4079,29 +4087,53 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6710,11 +6742,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -6737,26 +6769,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="31"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="36" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="135.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="55" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="6" t="s">
         <v>124</v>
       </c>
@@ -6767,1001 +6801,1562 @@
       <c r="F1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="22" customFormat="1">
-      <c r="A2" s="22">
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="22" customFormat="1">
-      <c r="A3" s="22">
+      <c r="F2" s="21"/>
+      <c r="G2" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="22" customFormat="1">
-      <c r="A4" s="22">
+      <c r="G3" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>669</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
       <c r="E4" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="21"/>
-      <c r="G4" s="24" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1">
-      <c r="A5" s="22">
+      <c r="G4" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1">
-      <c r="A6" s="22">
+      <c r="E5" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="22" customFormat="1">
-      <c r="A7" s="22">
+      <c r="E6" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="22" customFormat="1">
-      <c r="A8" s="22">
+      <c r="E7" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A9" s="22">
+      <c r="G8" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
-      <c r="A10" s="22">
+      <c r="G9" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
-      <c r="A11" s="22">
+      <c r="E10" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A12" s="22">
+      <c r="G11" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1">
-      <c r="A13" s="22">
+      <c r="E12" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A14" s="22">
+      <c r="E13" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>365</v>
+      <c r="E14" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="34" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A17" s="22">
+      <c r="F16" s="21"/>
+      <c r="G16" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A18" s="22">
+      <c r="G17" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A19" s="22">
+      <c r="E18" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
-      <c r="A20" s="22">
+      <c r="G19" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>23</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
+        <v>24</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="E24" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
+        <v>25</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="22" customFormat="1">
-      <c r="A21" s="22">
+      <c r="G25" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>26</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5">
+        <v>27</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5">
+        <v>28</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5">
         <v>29</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="22" customFormat="1">
-      <c r="A22" s="22">
+      <c r="B29" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5">
         <v>30</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="22" customFormat="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="22" customFormat="1">
-      <c r="B24" s="36"/>
-      <c r="C24" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="22" customFormat="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="22" customFormat="1">
-      <c r="A27" s="22">
+      <c r="B30" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5">
+        <v>31</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="5">
+        <v>32</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5">
         <v>33</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="B33" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5">
+        <v>34</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5">
+        <v>35</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5">
+        <v>36</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5">
+        <v>37</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5">
+        <v>38</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5">
+        <v>39</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
+        <v>40</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
+        <v>41</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5">
+        <v>42</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5">
+        <v>43</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="38.25">
+      <c r="A44" s="5">
+        <v>45</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>46</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="45">
+      <c r="A46" s="5">
+        <v>47</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="30">
+      <c r="A47" s="5">
+        <v>48</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
+        <v>49</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5">
+        <v>50</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="38.25">
+      <c r="A50" s="5">
+        <v>52</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5">
+        <v>53</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" ht="45">
+      <c r="A52" s="5">
+        <v>54</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" ht="30">
+      <c r="A53" s="5">
+        <v>55</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5">
+        <v>56</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5">
+        <v>57</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
+        <v>62</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
-      <c r="A28" s="22">
-        <v>34</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
-      <c r="A29" s="22">
-        <v>33</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="G56" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
+        <v>63</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5">
+        <v>64</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5">
+        <v>69</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
-      <c r="A30" s="22">
-        <v>34</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="22" customFormat="1">
-      <c r="A31" s="22">
-        <v>41</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="22" customFormat="1" ht="38.25">
-      <c r="A32" s="22">
-        <v>42</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A33" s="22">
-        <v>52</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="22">
-        <v>53</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="38.25">
-      <c r="A35" s="22">
-        <v>55</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>680</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A36" s="22">
-        <v>56</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>680</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A37" s="22">
-        <v>57</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>680</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
-      <c r="A38" s="22">
-        <v>58</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="22" customFormat="1">
-      <c r="A39" s="22">
-        <v>66</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1">
-      <c r="A40" s="22">
-        <v>67</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1">
-      <c r="A41" s="22">
-        <v>62</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="32" t="s">
+      <c r="G59" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5">
+        <v>70</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5">
+        <v>71</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5">
+        <v>76</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1">
+      <c r="A63" s="17">
+        <v>77</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1">
+      <c r="A64" s="17">
+        <v>78</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1">
+      <c r="A65" s="17">
+        <v>82</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="5">
+        <v>83</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F66" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" s="22" customFormat="1">
-      <c r="A42" s="22">
-        <v>73</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A43" s="22">
-        <v>74</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="22" customFormat="1">
-      <c r="A44" s="22">
-        <v>69</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="49" customFormat="1">
-      <c r="A45" s="49">
-        <v>70</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>677</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="G45" s="52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="49" customFormat="1">
-      <c r="A46" s="49">
-        <v>71</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>677</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="51"/>
-      <c r="G46" s="52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="22" customFormat="1">
-      <c r="A47" s="22">
-        <v>79</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1">
-      <c r="A48" s="22">
-        <v>80</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A49" s="22">
-        <v>81</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="22" customFormat="1">
-      <c r="A50" s="22">
-        <v>69</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="22" customFormat="1">
-      <c r="A51" s="22">
-        <v>86</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="22" customFormat="1">
-      <c r="A52" s="22">
-        <v>129</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="G66" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5">
+        <v>91</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="22" t="s">
+      <c r="E67" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="22" customFormat="1">
-      <c r="A53" s="22">
-        <v>130</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="11" t="s">
+      <c r="F67" s="21"/>
+      <c r="G67" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5">
+        <v>92</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="F53" s="22" t="s">
+      <c r="D68" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F68" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="C55" s="54" t="s">
+      <c r="G68" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="C69" s="33"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="C70" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="E56" s="27"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="H74" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="4"/>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="4"/>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="4"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="4"/>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="4"/>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="8:8">
+      <c r="H116" s="4"/>
+    </row>
+    <row r="118" spans="8:8">
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="8:8">
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="8:8">
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="8:8">
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="8:8">
+      <c r="H122" s="4"/>
+    </row>
+    <row r="124" spans="8:8">
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="8:8">
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="8:8">
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="8:8">
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="8:8">
+      <c r="H129" s="4"/>
+    </row>
+    <row r="131" spans="8:8">
+      <c r="H131" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C70:E70"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="52" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+    <oddHeader>&amp;CDATA DICTIONARY - OOLOGY</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7773,8 +8368,8 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7850,7 +8445,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -7869,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>3</v>
@@ -7893,10 +8488,10 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F6" s="21"/>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7910,10 +8505,10 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F7" s="21"/>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7922,7 +8517,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>5</v>
@@ -7930,8 +8525,8 @@
       <c r="D8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>138</v>
+      <c r="E8" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>161</v>
@@ -7946,7 +8541,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>6</v>
@@ -7976,10 +8571,10 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8000,7 +8595,7 @@
       <c r="F11" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8019,7 +8614,7 @@
         <v>388</v>
       </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8068,7 +8663,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -8090,7 +8685,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -8102,7 +8697,7 @@
         <v>278</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>135</v>
       </c>
       <c r="H16" s="2"/>
@@ -8185,7 +8780,7 @@
       <c r="F20" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8204,7 +8799,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="21"/>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8220,12 +8815,12 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8240,7 +8835,7 @@
         <v>169</v>
       </c>
       <c r="F23" s="21"/>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>135</v>
       </c>
       <c r="H23" s="2"/>
@@ -8250,7 +8845,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>29</v>
@@ -8280,12 +8875,12 @@
         <v>126</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8306,7 +8901,7 @@
       <c r="F26" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8353,10 +8948,10 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8370,10 +8965,10 @@
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F30" s="21"/>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8398,10 +8993,10 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F32" s="21"/>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8412,10 +9007,10 @@
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F33" s="21"/>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8440,10 +9035,10 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F35" s="21"/>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8454,10 +9049,10 @@
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F36" s="21"/>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8475,7 +9070,7 @@
         <v>350</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>478</v>
@@ -8497,7 +9092,7 @@
         <v>183</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>395</v>
@@ -8513,10 +9108,10 @@
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>500</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>458</v>
@@ -8534,7 +9129,7 @@
         <v>126</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="34" t="s">
@@ -8553,7 +9148,7 @@
         <v>126</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>188</v>
@@ -8593,7 +9188,7 @@
       <c r="F43" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8618,16 +9213,16 @@
       <c r="A45" s="5">
         <v>62</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>298</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="38" t="s">
         <v>135</v>
       </c>
       <c r="H45" s="28"/>
@@ -8647,7 +9242,7 @@
       <c r="F46" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8661,7 +9256,7 @@
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>384</v>
@@ -8680,12 +9275,12 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8704,7 +9299,7 @@
       <c r="F49" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8721,7 +9316,7 @@
         <v>476</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>466</v>
@@ -8742,7 +9337,7 @@
       <c r="F51" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8757,7 +9352,7 @@
         <v>221</v>
       </c>
       <c r="F52" s="21"/>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="39" t="s">
         <v>488</v>
       </c>
       <c r="H52" s="2"/>
@@ -8774,23 +9369,23 @@
         <v>126</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="27"/>
@@ -8816,7 +9411,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8901,7 +9496,7 @@
         <v>127</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -8917,7 +9512,7 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
@@ -8966,13 +9561,13 @@
         <v>126</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>161</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -8981,7 +9576,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>6</v>
@@ -8996,7 +9591,7 @@
         <v>163</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
@@ -9035,7 +9630,7 @@
         <v>162</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
@@ -9053,12 +9648,12 @@
         <v>388</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="C13" s="27" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -9066,7 +9661,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1">
       <c r="C14" s="27" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -9088,7 +9683,7 @@
         <v>423</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1" ht="45">
@@ -9109,7 +9704,7 @@
         <v>279</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5">
@@ -9127,7 +9722,7 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="24" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -9136,7 +9731,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>12</v>
@@ -9149,7 +9744,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="24" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -9158,7 +9753,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>13</v>
@@ -9173,7 +9768,7 @@
         <v>305</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1" ht="60">
@@ -9181,7 +9776,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>14</v>
@@ -9194,7 +9789,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="24" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1" ht="45">
@@ -9215,7 +9810,7 @@
         <v>280</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="30">
@@ -9288,10 +9883,10 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
@@ -9312,7 +9907,7 @@
         <v>162</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="22" customFormat="1">
@@ -9352,7 +9947,7 @@
         <v>162</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="22" customFormat="1">
@@ -9390,7 +9985,7 @@
         <v>162</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1">
@@ -9427,7 +10022,7 @@
         <v>177</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>135</v>
@@ -9438,7 +10033,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>38</v>
@@ -9448,7 +10043,7 @@
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="24" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -9465,7 +10060,7 @@
         <v>470</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="22" customFormat="1">
@@ -9516,7 +10111,7 @@
         <v>179</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1">
@@ -9559,7 +10154,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>45</v>
@@ -9568,13 +10163,13 @@
         <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>380</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -9604,7 +10199,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>302</v>
@@ -9617,7 +10212,7 @@
         <v>190</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -9638,12 +10233,12 @@
         <v>186</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
       <c r="C44" s="27" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
@@ -9665,10 +10260,10 @@
         <v>358</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -9676,7 +10271,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>51</v>
@@ -9686,7 +10281,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="24" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -9722,7 +10317,7 @@
         <v>194</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="22" customFormat="1">
@@ -9747,7 +10342,7 @@
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1">
       <c r="C50" s="27" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>282</v>
@@ -9756,7 +10351,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="25" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -9764,7 +10359,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>122</v>
@@ -9774,7 +10369,7 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="24" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I51" s="10"/>
     </row>
@@ -9800,13 +10395,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -11007,11 +11602,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -11190,8 +11785,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="B52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13098,13 +13693,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -13757,7 +14352,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>186</v>
@@ -13998,13 +14593,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -14029,8 +14624,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14122,7 +14717,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>368</v>
@@ -14155,7 +14750,7 @@
         <v>325</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>135</v>
@@ -14215,7 +14810,7 @@
         <v>386</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -14235,7 +14830,7 @@
         <v>162</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1" ht="30">
@@ -14251,8 +14846,8 @@
       <c r="D12" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>530</v>
+      <c r="F12" s="45" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1">
@@ -14284,10 +14879,10 @@
         <v>126</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>368</v>
@@ -14304,7 +14899,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24" t="s">
@@ -14323,7 +14918,7 @@
         <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="25" t="s">
@@ -14342,10 +14937,10 @@
         <v>126</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>135</v>
@@ -14362,7 +14957,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>135</v>
@@ -14379,7 +14974,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>135</v>
@@ -14396,7 +14991,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -14453,13 +15048,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="22" customFormat="1">
@@ -14476,7 +15071,7 @@
         <v>338</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>135</v>
@@ -14493,7 +15088,7 @@
         <v>126</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>162</v>
@@ -14516,7 +15111,7 @@
         <v>338</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>135</v>
@@ -14551,7 +15146,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="26" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>451</v>
@@ -14612,7 +15207,7 @@
         <v>190</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="25.5">
@@ -14626,13 +15221,13 @@
         <v>126</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="22" customFormat="1" ht="30">
@@ -14649,10 +15244,10 @@
         <v>358</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="22" customFormat="1">
@@ -14664,10 +15259,10 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="22" customFormat="1">
@@ -14697,10 +15292,10 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14751,7 +15346,7 @@
         <v>383</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1">
@@ -14784,7 +15379,7 @@
         <v>329</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>135</v>
@@ -14799,10 +15394,10 @@
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>135</v>
@@ -14835,7 +15430,7 @@
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="22" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>135</v>
@@ -14855,7 +15450,7 @@
         <v>337</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -14868,13 +15463,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -14899,7 +15494,7 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="B44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
@@ -14996,10 +15591,10 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>559</v>
+        <v>557</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>556</v>
       </c>
       <c r="G5" s="24"/>
     </row>
@@ -15015,7 +15610,7 @@
         <v>324</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>135</v>
@@ -15052,7 +15647,7 @@
         <v>126</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>161</v>
@@ -15107,7 +15702,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>343</v>
@@ -15167,13 +15762,13 @@
         <v>126</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>567</v>
+        <v>544</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>564</v>
       </c>
       <c r="G14" s="24"/>
     </row>
@@ -15190,8 +15785,8 @@
       <c r="D15" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>567</v>
+      <c r="F15" s="46" t="s">
+        <v>564</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -15206,10 +15801,10 @@
         <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>567</v>
+        <v>563</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>564</v>
       </c>
       <c r="G16" s="24"/>
     </row>
@@ -15263,13 +15858,13 @@
         <v>126</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G19" s="24"/>
     </row>
@@ -15284,7 +15879,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -15344,13 +15939,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G23" s="24"/>
     </row>
@@ -15368,7 +15963,7 @@
         <v>338</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>135</v>
@@ -15405,10 +16000,10 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -15450,7 +16045,7 @@
         <v>347</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G28" s="24"/>
     </row>
@@ -15463,13 +16058,13 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="22" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>190</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G29" s="24"/>
     </row>
@@ -15487,7 +16082,7 @@
         <v>361</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -15508,7 +16103,7 @@
         <v>188</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G31" s="23"/>
     </row>
@@ -15521,10 +16116,10 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="22" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -15556,10 +16151,10 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="22" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G34" s="23"/>
     </row>
@@ -15610,7 +16205,7 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="22" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>128</v>
@@ -15648,7 +16243,7 @@
         <v>329</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>135</v>
@@ -15664,10 +16259,10 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>135</v>
@@ -15705,10 +16300,10 @@
         <v>329</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G42" s="24"/>
     </row>
@@ -15721,7 +16316,7 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>135</v>
@@ -15761,7 +16356,7 @@
         <v>337</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -15772,13 +16367,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -15958,7 +16553,7 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16929,13 +17524,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -17112,19 +17707,1024 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="119.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="49"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="22" customFormat="1">
+      <c r="B1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="22" customFormat="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="22" customFormat="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="22" customFormat="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="22" customFormat="1">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="22" customFormat="1" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="22" customFormat="1" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="22" customFormat="1" ht="30">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="22" customFormat="1">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="22" customFormat="1" ht="30">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="22">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="22">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="22">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="22">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="22">
+        <v>34</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22">
+        <v>41</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="38.25">
+      <c r="A32" s="22">
+        <v>42</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A33" s="22">
+        <v>52</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="22">
+        <v>53</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="38.25">
+      <c r="A35" s="22">
+        <v>55</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="25.5">
+      <c r="A36" s="22">
+        <v>56</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="22">
+        <v>57</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="22">
+        <v>58</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22">
+        <v>66</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22">
+        <v>67</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22">
+        <v>70</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="22">
+        <v>62</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="22">
+        <v>73</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="22">
+        <v>74</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="22">
+        <v>69</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="22">
+        <v>70</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="22">
+        <v>79</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="22">
+        <v>80</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="22">
+        <v>81</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="22">
+        <v>69</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="22">
+        <v>70</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="22">
+        <v>86</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="22">
+        <v>129</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="22">
+        <v>130</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B56:F56"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="50" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.85546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="119.7109375" style="2" customWidth="1"/>
@@ -17136,7 +18736,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="12" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>474</v>
@@ -17160,7 +18760,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
@@ -17178,7 +18778,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
@@ -17200,10 +18800,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" s="35" t="s">
         <v>639</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>633</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -17222,9 +18822,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="C5" s="21"/>
+        <v>616</v>
+      </c>
+      <c r="C5" s="50"/>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
@@ -17233,14 +18833,14 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>490</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
@@ -17256,7 +18856,7 @@
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="11" t="s">
         <v>133</v>
       </c>
@@ -17273,10 +18873,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>648</v>
+        <v>638</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>669</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>5</v>
@@ -17285,9 +18885,9 @@
         <v>126</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>161</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -17295,12 +18895,12 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="25.5">
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>640</v>
+      <c r="C9" s="52" t="s">
+        <v>670</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -17322,7 +18922,7 @@
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
@@ -17340,7 +18940,7 @@
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
@@ -17361,7 +18961,7 @@
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
@@ -17375,32 +18975,30 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="22" customFormat="1" ht="30">
+    <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>647</v>
-      </c>
+      <c r="C13" s="53"/>
       <c r="D13" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>423</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>342</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
@@ -17417,15 +19015,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -17442,12 +19037,9 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="5">
         <v>15</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>649</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>12</v>
@@ -17468,8 +19060,8 @@
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>587</v>
+      <c r="C17" s="50" t="s">
+        <v>583</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>13</v>
@@ -17491,8 +19083,8 @@
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>590</v>
+      <c r="C18" s="50" t="s">
+        <v>586</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>14</v>
@@ -17505,7 +19097,7 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="24" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
@@ -17513,10 +19105,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>641</v>
+        <v>622</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>634</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>15</v>
@@ -17538,7 +19130,7 @@
       <c r="A20" s="22">
         <v>28</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -17559,9 +19151,7 @@
       <c r="A21" s="22">
         <v>29</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>586</v>
-      </c>
+      <c r="C21" s="50"/>
       <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
@@ -17579,7 +19169,7 @@
       <c r="A22" s="22">
         <v>30</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
@@ -17597,8 +19187,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1">
-      <c r="C23" s="21" t="s">
-        <v>642</v>
+      <c r="C23" s="50" t="s">
+        <v>672</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>282</v>
@@ -17610,8 +19200,8 @@
       <c r="A24" s="5">
         <v>32</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>642</v>
+      <c r="C24" s="51" t="s">
+        <v>673</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>28</v>
@@ -17630,11 +19220,9 @@
         <v>33</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>587</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C25" s="50"/>
       <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
@@ -17642,7 +19230,7 @@
         <v>126</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>162</v>
@@ -17655,7 +19243,7 @@
       <c r="A26" s="22">
         <v>34</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="11" t="s">
         <v>30</v>
       </c>
@@ -17676,9 +19264,7 @@
       <c r="A27" s="22">
         <v>33</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>587</v>
-      </c>
+      <c r="C27" s="50"/>
       <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
@@ -17686,7 +19272,7 @@
         <v>126</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>162</v>
@@ -17699,7 +19285,7 @@
       <c r="A28" s="22">
         <v>34</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="11" t="s">
         <v>32</v>
       </c>
@@ -17720,9 +19306,7 @@
       <c r="A29" s="22">
         <v>33</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>587</v>
-      </c>
+      <c r="C29" s="50"/>
       <c r="D29" s="11" t="s">
         <v>33</v>
       </c>
@@ -17730,7 +19314,7 @@
         <v>126</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>162</v>
@@ -17743,7 +19327,7 @@
       <c r="A30" s="22">
         <v>34</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="11" t="s">
         <v>34</v>
       </c>
@@ -17764,7 +19348,7 @@
       <c r="A31" s="22">
         <v>41</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="11" t="s">
         <v>37</v>
       </c>
@@ -17775,7 +19359,7 @@
         <v>177</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>135</v>
@@ -17785,14 +19369,14 @@
       <c r="A32" s="5">
         <v>42</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>495</v>
+      <c r="C32" s="51" t="s">
+        <v>682</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="24" t="s">
@@ -17804,7 +19388,7 @@
       <c r="A33" s="22">
         <v>43</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="11" t="s">
         <v>39</v>
       </c>
@@ -17813,14 +19397,14 @@
         <v>470</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>490</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="22" customFormat="1">
       <c r="A34" s="22">
         <v>44</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="11" t="s">
         <v>40</v>
       </c>
@@ -17836,7 +19420,7 @@
       <c r="A35" s="22">
         <v>45</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="11" t="s">
         <v>131</v>
       </c>
@@ -17849,7 +19433,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="22" customFormat="1" ht="25.5">
-      <c r="C36" s="21"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="11" t="s">
         <v>41</v>
       </c>
@@ -17858,11 +19442,11 @@
         <v>470</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>490</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="22" customFormat="1">
-      <c r="C37" s="21"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="11" t="s">
         <v>42</v>
       </c>
@@ -17875,7 +19459,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1">
-      <c r="C38" s="21"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="11" t="s">
         <v>132</v>
       </c>
@@ -17888,7 +19472,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="22" customFormat="1" ht="25.5">
-      <c r="C39" s="21"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="11" t="s">
         <v>43</v>
       </c>
@@ -17897,11 +19481,11 @@
         <v>470</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>490</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="22" customFormat="1">
-      <c r="C40" s="21"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="11" t="s">
         <v>44</v>
       </c>
@@ -17914,7 +19498,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="22" customFormat="1">
-      <c r="C41" s="21"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="11" t="s">
         <v>130</v>
       </c>
@@ -17926,387 +19510,526 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45">
-      <c r="A42" s="5">
-        <v>52</v>
-      </c>
+    <row r="42" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="C42" s="50"/>
       <c r="D42" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A43" s="22">
-        <v>53</v>
-      </c>
-      <c r="C43" s="38"/>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="22" customFormat="1">
+      <c r="C43" s="50"/>
       <c r="D43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>126</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="22" customFormat="1" ht="38.25">
-      <c r="A44" s="22">
-        <v>55</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>499</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="22" customFormat="1">
+      <c r="C44" s="50"/>
       <c r="D44" s="11" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45">
+      <c r="A45" s="5">
+        <v>52</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>674</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A46" s="22">
+        <v>53</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="22" customFormat="1" ht="38.25">
+      <c r="A47" s="22">
+        <v>55</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="H47" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="22" customFormat="1" ht="60">
+      <c r="A48" s="22">
+        <v>56</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="C48" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="H44" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="22" customFormat="1" ht="60">
-      <c r="A45" s="22">
-        <v>56</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="D45" s="33" t="s">
+      <c r="D48" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="24" t="s">
+      <c r="E48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="24" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="22" customFormat="1" ht="45">
-      <c r="A46" s="22">
+    <row r="49" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A49" s="22">
         <v>57</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="11" t="s">
+      <c r="C49" s="50"/>
+      <c r="D49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="22" t="s">
+      <c r="E49" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G49" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H49" s="24" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5">
-        <v>58</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" s="22" customFormat="1">
-      <c r="A48" s="22">
-        <v>66</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="22" customFormat="1">
-      <c r="A49" s="22">
-        <v>67</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="24" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="5">
-        <v>62</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I50" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" s="22" customFormat="1">
       <c r="A51" s="22">
-        <v>73</v>
-      </c>
-      <c r="C51" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="C51" s="50"/>
       <c r="D51" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="22" t="s">
         <v>329</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H51" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="22" customFormat="1" ht="30">
+    <row r="52" spans="1:9" s="22" customFormat="1">
       <c r="A52" s="22">
-        <v>74</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="C52" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="C52" s="50"/>
       <c r="D52" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>384</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G52" s="21"/>
       <c r="H52" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="22" customFormat="1">
-      <c r="A53" s="22">
-        <v>79</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="G53" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5">
+        <v>62</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>162</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>135</v>
       </c>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" s="22" customFormat="1">
-      <c r="C54" s="21"/>
+      <c r="A54" s="22">
+        <v>73</v>
+      </c>
+      <c r="C54" s="50"/>
       <c r="D54" s="11" t="s">
-        <v>643</v>
+        <v>66</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="H54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" s="22" customFormat="1">
+        <v>329</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A55" s="22">
+        <v>74</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="22" customFormat="1">
+      <c r="A56" s="22">
+        <v>79</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="22" customFormat="1">
+      <c r="C57" s="54"/>
+      <c r="D57" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" s="22" customFormat="1">
+      <c r="A58" s="22">
         <v>80</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="11" t="s">
+      <c r="C58" s="54"/>
+      <c r="D58" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A56" s="22">
-        <v>81</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="22" customFormat="1">
-      <c r="A57" s="22">
-        <v>86</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="22" customFormat="1">
-      <c r="D58" s="11" t="s">
-        <v>643</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="H58" s="23"/>
-    </row>
-    <row r="59" spans="1:9" ht="30">
-      <c r="A59" s="5">
+        <v>329</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A59" s="22">
+        <v>81</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="22" customFormat="1">
+      <c r="C60" s="54"/>
+      <c r="D60" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="22" customFormat="1">
+      <c r="A61" s="22">
+        <v>86</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="22" customFormat="1">
+      <c r="C62" s="54"/>
+      <c r="D62" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" s="22" customFormat="1">
+      <c r="A63" s="22">
+        <v>80</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="57"/>
+      <c r="F63" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A64" s="22">
+        <v>81</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="57"/>
+      <c r="F64" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="22" customFormat="1">
+      <c r="C65" s="55"/>
+      <c r="D65" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="57"/>
+      <c r="F65" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="G65" s="58"/>
+      <c r="H65" s="60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="22" customFormat="1">
+      <c r="A66" s="22">
+        <v>86</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="57"/>
+      <c r="F66" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="22" customFormat="1">
+      <c r="C67" s="55"/>
+      <c r="D67" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="E67" s="57"/>
+      <c r="F67" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="G67" s="58"/>
+      <c r="H67" s="59"/>
+    </row>
+    <row r="68" spans="1:9" ht="30">
+      <c r="A68" s="5">
         <v>129</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="D59" s="33" t="s">
+      <c r="C68" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F68" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" s="22" customFormat="1">
-      <c r="A60" s="22">
+      <c r="G68" s="21"/>
+      <c r="H68" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" s="22" customFormat="1">
+      <c r="A69" s="22">
         <v>130</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="11" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="22" t="s">
+      <c r="E69" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G69" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H60" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="D62" s="54" t="s">
+      <c r="H69" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="D71" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="C63" s="21" t="s">
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="C72" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F72" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D71:H71"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -18315,1601 +20038,4 @@
     <oddHeader>&amp;CDATA DICTIONARY - MALACOLOGY</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H131"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="135.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="50.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="55" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5">
-        <v>23</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="5">
-        <v>24</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5">
-        <v>25</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5">
-        <v>26</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="5">
-        <v>27</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5">
-        <v>28</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5">
-        <v>29</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5">
-        <v>30</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5">
-        <v>31</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="5">
-        <v>32</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="5">
-        <v>33</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5">
-        <v>34</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5">
-        <v>35</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5">
-        <v>36</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="5">
-        <v>37</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="5">
-        <v>38</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="5">
-        <v>39</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5">
-        <v>40</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5">
-        <v>41</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5">
-        <v>42</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5">
-        <v>43</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="38.25">
-      <c r="A44" s="5">
-        <v>45</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5">
-        <v>46</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="45">
-      <c r="A46" s="5">
-        <v>47</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="30">
-      <c r="A47" s="5">
-        <v>48</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="5">
-        <v>49</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="5">
-        <v>50</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="38.25">
-      <c r="A50" s="5">
-        <v>52</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="5">
-        <v>53</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" ht="45">
-      <c r="A52" s="5">
-        <v>54</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" ht="30">
-      <c r="A53" s="5">
-        <v>55</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="5">
-        <v>56</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="5">
-        <v>57</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="5">
-        <v>62</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="5">
-        <v>63</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="5">
-        <v>64</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="5">
-        <v>69</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="5">
-        <v>70</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="5">
-        <v>71</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="5">
-        <v>76</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G62" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1">
-      <c r="A63" s="17">
-        <v>77</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1">
-      <c r="A64" s="17">
-        <v>78</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" s="1" customFormat="1">
-      <c r="A65" s="17">
-        <v>82</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="5">
-        <v>83</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="5">
-        <v>91</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="5">
-        <v>92</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="C69" s="33"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="C70" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="H74" s="4"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="8:8">
-      <c r="H81" s="4"/>
-    </row>
-    <row r="83" spans="8:8">
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="8:8">
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="8:8">
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="8:8">
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="8:8">
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="8:8">
-      <c r="H88" s="4"/>
-    </row>
-    <row r="90" spans="8:8">
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="8:8">
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="8:8">
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="8:8">
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="8:8">
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="8:8">
-      <c r="H95" s="4"/>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="8:8">
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="8:8">
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="8:8">
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="8:8">
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="8:8">
-      <c r="H102" s="4"/>
-    </row>
-    <row r="104" spans="8:8">
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="8:8">
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="8:8">
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="8:8">
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="8:8">
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="8:8">
-      <c r="H109" s="4"/>
-    </row>
-    <row r="111" spans="8:8">
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="8:8">
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="8:8">
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="8:8">
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="8:8">
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="8:8">
-      <c r="H116" s="4"/>
-    </row>
-    <row r="118" spans="8:8">
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="8:8">
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="8:8">
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="8:8">
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="8:8">
-      <c r="H122" s="4"/>
-    </row>
-    <row r="124" spans="8:8">
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="8:8">
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="8:8">
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="8:8">
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="8:8">
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="8:8">
-      <c r="H129" s="4"/>
-    </row>
-    <row r="131" spans="8:8">
-      <c r="H131" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C70:E70"/>
-  </mergeCells>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" fitToHeight="6" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;CDATA DICTIONARY - OOLOGY</oddHeader>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5310" windowWidth="19440" windowHeight="7485" activeTab="8"/>
+    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ENTO - Non Insect'!$B$1:$F$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">HERB!$D$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">MALA!$B$1:$H$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">MALA!$B$1:$H$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">REPTILE!$C$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">BIRD!$1:$1</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="700">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3004,18 +3004,12 @@
     <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record has been compared to CHAS…" and "Originally inventoried in [spreadsheet name]"</t>
   </si>
   <si>
-    <t>cleaned first pass</t>
-  </si>
-  <si>
     <t>Additional collector, if present</t>
   </si>
   <si>
     <t>The primary collector, if not recorded then "unknown"</t>
   </si>
   <si>
-    <t>cleaned first pass, need to incorporate Station and Stratum columns</t>
-  </si>
-  <si>
     <t>Locality (original, complete), City, Locality Station, Locality Stratum</t>
   </si>
   <si>
@@ -3155,9 +3149,6 @@
   </si>
   <si>
     <t>Must be unique, needs attention; deal with duplicate #s</t>
-  </si>
-  <si>
-    <t>Need to fill in standard message for blank cells after data matching process; Need to add CAT - Locality</t>
   </si>
   <si>
     <t>ATTRIBUTE_DET_METHOD_2</t>
@@ -3292,9 +3283,6 @@
     <t>Common Name, Remarks</t>
   </si>
   <si>
-    <t>need to clean - where does depth go?</t>
-  </si>
-  <si>
     <t>Need to fill ?</t>
   </si>
   <si>
@@ -3316,9 +3304,6 @@
     <t>ATTRIBUTE_DET_METHOD_3</t>
   </si>
   <si>
-    <t>need value for "egg" / how to deal with multiple attribute values, e.g. adult + eggs?</t>
-  </si>
-  <si>
     <t>Needs cleaning and merging w/ Sam's data</t>
   </si>
   <si>
@@ -3328,8 +3313,71 @@
     <t>ATTRIBUTE_DET_METHOD_4</t>
   </si>
   <si>
+    <t>need to incorporate Station and Stratum columns</t>
+  </si>
+  <si>
+    <t>Habitat, Locality (original, complete)</t>
+  </si>
+  <si>
+    <t>MIN_DEPTH</t>
+  </si>
+  <si>
+    <t>MAX_DEPTH</t>
+  </si>
+  <si>
+    <t>DEPTH_UNITS</t>
+  </si>
+  <si>
+    <t>COLLECTING_METHOD</t>
+  </si>
+  <si>
+    <t>ASSOCIATED_SPECIES</t>
+  </si>
+  <si>
+    <t>Free text for any associated taxa found with this specimen. Use only when you cannot link directly to another specimen.</t>
+  </si>
+  <si>
+    <t>Remarks, Habitat</t>
+  </si>
+  <si>
+    <t>free-text describing how the specimen and the event are related, i.e. how the specimen was collected</t>
+  </si>
+  <si>
+    <t>Minimum depth of collecting locality, where provided</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Primarily used for "age class" where the specimen had more than one age class present. Use term that best reflects original collector's description; [see code table </t>
+      <t xml:space="preserve">[see code table for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTDEPTH_UNITS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>"feet," "fathoms"</t>
+  </si>
+  <si>
+    <t>add info from remarks, e.g. barnacles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primarily used for "age class" or "sex" where the specimen had more than one age class or sex present. Use term that best reflects original collector's description; [see code table </t>
     </r>
     <r>
       <rPr>
@@ -3348,8 +3396,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">] or [see code table </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEX_CDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>"age class" or "sex"</t>
+  </si>
+  <si>
+    <t>Age, sex</t>
+  </si>
+  <si>
+    <t>Verbatim age recorded here, as it varies much from the controlled vocabulary; no verbatim information for sex</t>
+  </si>
+  <si>
+    <t>Assumed to be unknown unless otherwise stated</t>
+  </si>
+  <si>
+    <t>Assumed to be unknown unless otherwise stated; for "not recorded" the determiner is typically "Erica Krimmel"</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_DET_METHOD_5</t>
   </si>
 </sst>
 </file>
@@ -3947,7 +4032,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4110,24 +4195,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6742,11 +6809,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="61" t="s">
+      <c r="B133" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="61"/>
-      <c r="D133" s="61"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -8185,11 +8252,11 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
@@ -9379,13 +9446,13 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="27"/>
@@ -9496,7 +9563,7 @@
         <v>127</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -9512,7 +9579,7 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
@@ -9567,7 +9634,7 @@
         <v>161</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -9576,7 +9643,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>6</v>
@@ -9591,7 +9658,7 @@
         <v>163</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
@@ -9630,7 +9697,7 @@
         <v>162</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
@@ -9648,12 +9715,12 @@
         <v>388</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="C13" s="27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -9661,7 +9728,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1">
       <c r="C14" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -9683,7 +9750,7 @@
         <v>423</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1" ht="45">
@@ -9704,7 +9771,7 @@
         <v>279</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5">
@@ -9722,7 +9789,7 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="24" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -9731,7 +9798,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>12</v>
@@ -9744,7 +9811,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="24" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -9753,7 +9820,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>13</v>
@@ -9768,7 +9835,7 @@
         <v>305</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1" ht="60">
@@ -9776,7 +9843,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>14</v>
@@ -9789,7 +9856,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1" ht="45">
@@ -9810,7 +9877,7 @@
         <v>280</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="30">
@@ -9883,10 +9950,10 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
@@ -9907,7 +9974,7 @@
         <v>162</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="22" customFormat="1">
@@ -9947,7 +10014,7 @@
         <v>162</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="22" customFormat="1">
@@ -9985,7 +10052,7 @@
         <v>162</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1">
@@ -10022,7 +10089,7 @@
         <v>177</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>135</v>
@@ -10033,7 +10100,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>38</v>
@@ -10043,7 +10110,7 @@
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="24" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -10060,7 +10127,7 @@
         <v>470</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="22" customFormat="1">
@@ -10111,7 +10178,7 @@
         <v>179</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1">
@@ -10154,7 +10221,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>45</v>
@@ -10169,7 +10236,7 @@
         <v>380</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -10199,7 +10266,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>302</v>
@@ -10212,7 +10279,7 @@
         <v>190</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -10233,12 +10300,12 @@
         <v>186</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
       <c r="C44" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
@@ -10260,10 +10327,10 @@
         <v>358</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -10271,7 +10338,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>51</v>
@@ -10281,7 +10348,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="24" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -10317,7 +10384,7 @@
         <v>194</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="22" customFormat="1">
@@ -10342,7 +10409,7 @@
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1">
       <c r="C50" s="27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>282</v>
@@ -10351,7 +10418,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -10359,7 +10426,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>122</v>
@@ -10369,7 +10436,7 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="24" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I51" s="10"/>
     </row>
@@ -10395,13 +10462,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -11602,11 +11669,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -13693,13 +13760,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="61" t="s">
+      <c r="B110" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -14593,13 +14660,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -15463,13 +15530,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -16367,13 +16434,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -17524,13 +17591,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -17710,7 +17777,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17789,7 +17856,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="22" customFormat="1">
@@ -17804,7 +17871,7 @@
         <v>470</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="22" customFormat="1">
@@ -17905,7 +17972,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>162</v>
@@ -17946,7 +18013,7 @@
         <v>423</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="30">
@@ -18038,7 +18105,7 @@
         <v>425</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>485</v>
@@ -18062,7 +18129,7 @@
         <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -18128,40 +18195,40 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>660</v>
-      </c>
       <c r="F23" s="25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>658</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>661</v>
       </c>
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>662</v>
-      </c>
       <c r="F25" s="25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -18173,10 +18240,10 @@
         <v>282</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -18197,7 +18264,7 @@
         <v>162</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G27" s="22"/>
     </row>
@@ -18233,13 +18300,13 @@
         <v>126</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G29" s="22"/>
     </row>
@@ -18278,7 +18345,7 @@
         <v>177</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>135</v>
@@ -18296,7 +18363,7 @@
         <v>493</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -18317,7 +18384,7 @@
         <v>519</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -18335,7 +18402,7 @@
         <v>183</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>247</v>
@@ -18371,10 +18438,10 @@
         <v>126</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G36" s="22"/>
     </row>
@@ -18392,7 +18459,7 @@
         <v>358</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>479</v>
@@ -18410,7 +18477,7 @@
         <v>249</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -18443,7 +18510,7 @@
         <v>194</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G40" s="22"/>
     </row>
@@ -18455,7 +18522,7 @@
         <v>70</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>135</v>
@@ -18524,7 +18591,7 @@
         <v>69</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>459</v>
@@ -18539,7 +18606,7 @@
         <v>70</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>135</v>
@@ -18593,7 +18660,7 @@
         <v>435</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>466</v>
@@ -18608,7 +18675,7 @@
         <v>76</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>466</v>
@@ -18623,7 +18690,7 @@
         <v>70</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>135</v>
@@ -18686,13 +18753,13 @@
       <c r="G54" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18712,12 +18779,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18736,7 +18803,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>474</v>
@@ -18800,10 +18867,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -18822,7 +18889,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="11" t="s">
@@ -18833,7 +18900,7 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
@@ -18869,14 +18936,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
-      <c r="A8" s="5">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>5</v>
@@ -18900,7 +18967,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -18991,7 +19058,7 @@
         <v>423</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
@@ -19016,11 +19083,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -19038,7 +19105,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="5">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -19060,9 +19127,7 @@
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>583</v>
-      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
@@ -19084,7 +19149,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>586</v>
+        <v>679</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>14</v>
@@ -19095,9 +19160,11 @@
       <c r="F18" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>653</v>
+      </c>
       <c r="H18" s="24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
@@ -19105,11 +19172,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>634</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C19" s="50"/>
       <c r="D19" s="11" t="s">
         <v>15</v>
       </c>
@@ -19119,7 +19184,7 @@
       <c r="F19" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>280</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -19128,7 +19193,7 @@
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1">
       <c r="A20" s="22">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="11" t="s">
@@ -19149,7 +19214,7 @@
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1">
       <c r="A21" s="22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="11" t="s">
@@ -19167,7 +19232,7 @@
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1">
       <c r="A22" s="22">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="11" t="s">
@@ -19187,268 +19252,283 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1">
-      <c r="C23" s="50" t="s">
-        <v>672</v>
-      </c>
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="C23" s="54"/>
       <c r="D23" s="11" t="s">
-        <v>282</v>
+        <v>654</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5">
-        <v>32</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>673</v>
-      </c>
+      <c r="F23" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="22" customFormat="1">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="C24" s="54"/>
       <c r="D24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="22" customFormat="1">
       <c r="A25" s="22">
-        <v>33</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="54"/>
       <c r="D25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>332</v>
+        <v>659</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
       <c r="A26" s="22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="22" customFormat="1">
+        <v>651</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="22">
-        <v>33</v>
-      </c>
-      <c r="C27" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>669</v>
+      </c>
       <c r="D27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>332</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="22" customFormat="1">
       <c r="A28" s="22">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>618</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>338</v>
+        <v>584</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="22" customFormat="1">
       <c r="A29" s="22">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>584</v>
+        <v>338</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>332</v>
+        <v>174</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="22" customFormat="1">
       <c r="A30" s="22">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>338</v>
+        <v>583</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1">
       <c r="A31" s="22">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>647</v>
+        <v>174</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="63.75">
-      <c r="A32" s="5">
-        <v>42</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>682</v>
-      </c>
+    <row r="32" spans="1:9" s="22" customFormat="1">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="C32" s="50"/>
       <c r="D32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="H32" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" s="22" customFormat="1" ht="25.5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="22" customFormat="1">
       <c r="A33" s="22">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F33" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>668</v>
+        <v>338</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="22" customFormat="1">
       <c r="A34" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F34" s="22" t="s">
-        <v>324</v>
+        <v>177</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>644</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="22" customFormat="1">
+    <row r="35" spans="1:9" ht="63.75">
       <c r="A35" s="22">
-        <v>45</v>
-      </c>
-      <c r="C35" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>677</v>
+      </c>
       <c r="D35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>135</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
       <c r="C36" s="50"/>
       <c r="D36" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="22" t="s">
         <v>470</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="22" customFormat="1">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
       <c r="C37" s="50"/>
       <c r="D37" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="22" t="s">
@@ -19459,9 +19539,12 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
       <c r="C38" s="50"/>
       <c r="D38" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="22" t="s">
@@ -19472,22 +19555,28 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
       <c r="C39" s="50"/>
       <c r="D39" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="22" t="s">
         <v>470</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="22" customFormat="1">
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
       <c r="C40" s="50"/>
       <c r="D40" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="22" t="s">
@@ -19498,9 +19587,12 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="22" customFormat="1">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
       <c r="C41" s="50"/>
       <c r="D41" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="22" t="s">
@@ -19511,22 +19603,28 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
       <c r="C42" s="50"/>
       <c r="D42" s="11" t="s">
-        <v>392</v>
+        <v>43</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="22" t="s">
         <v>470</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
       <c r="C43" s="50"/>
       <c r="D43" s="11" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="22" t="s">
@@ -19537,9 +19635,12 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
       <c r="C44" s="50"/>
       <c r="D44" s="11" t="s">
-        <v>394</v>
+        <v>130</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="22" t="s">
@@ -19549,242 +19650,229 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45">
-      <c r="A45" s="5">
-        <v>52</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>674</v>
-      </c>
+    <row r="45" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="C45" s="50"/>
       <c r="D45" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="22" customFormat="1">
+      <c r="A46" s="22">
         <v>45</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A46" s="22">
-        <v>53</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>675</v>
-      </c>
+      <c r="C46" s="50"/>
       <c r="D46" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="22" customFormat="1">
+      <c r="A47" s="22">
         <v>46</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="22" customFormat="1" ht="38.25">
-      <c r="A47" s="22">
-        <v>55</v>
       </c>
       <c r="C47" s="50"/>
       <c r="D47" s="11" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="22" customFormat="1" ht="38.25">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G50" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H50" s="24" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="22" customFormat="1" ht="60">
-      <c r="A48" s="22">
-        <v>56</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="C48" s="51" t="s">
+    <row r="51" spans="1:9" s="22" customFormat="1" ht="60">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D51" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="21" t="s">
+      <c r="E51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="24" t="s">
+      <c r="G51" s="21"/>
+      <c r="H51" s="24" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="22" customFormat="1" ht="45">
-      <c r="A49" s="22">
-        <v>57</v>
-      </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="5">
-        <v>58</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>676</v>
-      </c>
-      <c r="D50" s="11" t="s">
+    <row r="52" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A52" s="22">
         <v>51</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" s="22" customFormat="1">
-      <c r="A51" s="22">
-        <v>66</v>
-      </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="22" customFormat="1">
-      <c r="A52" s="22">
-        <v>67</v>
       </c>
       <c r="C52" s="50"/>
       <c r="D52" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="F52" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="21"/>
+        <v>358</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="H52" s="24" t="s">
-        <v>332</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="5">
-        <v>62</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="28"/>
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" s="22" customFormat="1">
       <c r="A54" s="22">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C54" s="50"/>
       <c r="D54" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="22" t="s">
         <v>329</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="22" customFormat="1" ht="30">
+    <row r="55" spans="1:9" s="22" customFormat="1">
       <c r="A55" s="22">
-        <v>74</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>617</v>
+        <v>54</v>
       </c>
       <c r="C55" s="50"/>
       <c r="D55" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>677</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G55" s="21"/>
       <c r="H55" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="22" customFormat="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="22">
-        <v>79</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="22" t="s">
-        <v>501</v>
+        <v>55</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>162</v>
@@ -19792,244 +19880,484 @@
       <c r="H56" s="23" t="s">
         <v>135</v>
       </c>
+      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" s="22" customFormat="1">
-      <c r="C57" s="54"/>
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="C57" s="50"/>
       <c r="D57" s="11" t="s">
-        <v>635</v>
+        <v>66</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:9" s="22" customFormat="1">
+        <v>329</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A58" s="22">
-        <v>80</v>
-      </c>
-      <c r="C58" s="54"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C58" s="50"/>
       <c r="D58" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="22" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="22" customFormat="1" ht="30">
+        <v>673</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="22" customFormat="1">
       <c r="A59" s="22">
-        <v>81</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>618</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C59" s="54"/>
       <c r="D59" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="22" t="s">
-        <v>435</v>
+        <v>698</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>466</v>
+        <v>162</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="22" customFormat="1">
+      <c r="A60" s="22">
+        <v>59</v>
+      </c>
       <c r="C60" s="54"/>
       <c r="D60" s="11" t="s">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>466</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:9" s="22" customFormat="1">
       <c r="A61" s="22">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C61" s="54"/>
       <c r="D61" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="22" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="22" customFormat="1">
-      <c r="C62" s="54"/>
+    <row r="62" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A62" s="22">
+        <v>61</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>616</v>
+      </c>
       <c r="D62" s="11" t="s">
-        <v>679</v>
+        <v>74</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="H62" s="23"/>
+        <v>435</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="63" spans="1:9" s="22" customFormat="1">
       <c r="A63" s="22">
+        <v>62</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="22" customFormat="1">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="22" customFormat="1">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="1:8" s="26" customFormat="1">
+      <c r="A66" s="22">
+        <v>65</v>
+      </c>
+      <c r="C66" s="53"/>
+      <c r="D66" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="26" customFormat="1" ht="30">
+      <c r="A67" s="22">
+        <v>66</v>
+      </c>
+      <c r="C67" s="51"/>
+      <c r="D67" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="26" customFormat="1">
+      <c r="A68" s="22">
+        <v>67</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="26" customFormat="1">
+      <c r="A69" s="22">
+        <v>68</v>
+      </c>
+      <c r="C69" s="53"/>
+      <c r="D69" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="26" customFormat="1">
+      <c r="A70" s="22">
+        <v>69</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" s="26" customFormat="1">
+      <c r="A71" s="22">
+        <v>70</v>
+      </c>
+      <c r="C71" s="53"/>
+      <c r="D71" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="26" customFormat="1" ht="30">
+      <c r="A72" s="22">
+        <v>71</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="26" customFormat="1">
+      <c r="A73" s="22">
+        <v>72</v>
+      </c>
+      <c r="C73" s="53"/>
+      <c r="D73" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="26" customFormat="1">
+      <c r="A74" s="22">
+        <v>73</v>
+      </c>
+      <c r="C74" s="53"/>
+      <c r="D74" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="26" customFormat="1">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="C75" s="53"/>
+      <c r="D75" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="1:8" s="26" customFormat="1">
+      <c r="A76" s="22">
+        <v>75</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="G76" s="22"/>
+      <c r="H76" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="26" customFormat="1">
+      <c r="A77" s="22">
+        <v>76</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="G77" s="22"/>
+      <c r="H77" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="26" customFormat="1">
+      <c r="A78" s="22">
+        <v>77</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="26" customFormat="1">
+      <c r="A79" s="22">
+        <v>78</v>
+      </c>
+      <c r="C79" s="53"/>
+      <c r="D79" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="26" customFormat="1">
+      <c r="A80" s="22">
+        <v>79</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30">
+      <c r="A81" s="22">
         <v>80</v>
       </c>
-      <c r="E63" s="57"/>
-      <c r="F63" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="22" customFormat="1" ht="45">
-      <c r="A64" s="22">
+      <c r="C81" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" s="22" customFormat="1">
+      <c r="A82" s="22">
         <v>81</v>
       </c>
-      <c r="C64" s="52" t="s">
-        <v>680</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58" t="s">
-        <v>684</v>
-      </c>
-      <c r="G64" s="58" t="s">
-        <v>637</v>
-      </c>
-      <c r="H64" s="60" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="22" customFormat="1">
-      <c r="C65" s="55"/>
-      <c r="D65" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="57"/>
-      <c r="F65" s="58" t="s">
-        <v>678</v>
-      </c>
-      <c r="G65" s="58"/>
-      <c r="H65" s="60" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="22" customFormat="1">
-      <c r="A66" s="22">
-        <v>86</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="G66" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="H66" s="59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="22" customFormat="1">
-      <c r="C67" s="55"/>
-      <c r="D67" s="56" t="s">
-        <v>683</v>
-      </c>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58" t="s">
-        <v>636</v>
-      </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="59"/>
-    </row>
-    <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="5">
-        <v>129</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" s="22" customFormat="1">
-      <c r="A69" s="22">
-        <v>130</v>
-      </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="11" t="s">
+      <c r="C82" s="50"/>
+      <c r="D82" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="22" t="s">
+      <c r="E82" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G82" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H69" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="D71" s="62" t="s">
+      <c r="H82" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="D84" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="C72" s="50" t="s">
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="C85" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F85" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D84:H84"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" activeTab="8"/>
+    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="MALA" sheetId="11" r:id="rId9"/>
     <sheet name="REPTILE" sheetId="15" r:id="rId10"/>
     <sheet name="ENTO - Coleoptera" sheetId="17" r:id="rId11"/>
-    <sheet name="HERB" sheetId="19" r:id="rId12"/>
+    <sheet name="ENTO - Diptera" sheetId="21" r:id="rId12"/>
+    <sheet name="HERB" sheetId="19" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BIRD!$B$1:$F$110</definedName>
@@ -27,9 +28,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'EH - Model'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'ENTO - Diptera'!$C$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ENTO - Non Insect'!$B$1:$F$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">HERB!$D$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">HERB!$D$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">MALA!$B$1:$H$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">REPTILE!$C$1:$G$70</definedName>
@@ -39,9 +41,10 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'EH - Model'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'EH - Sci Hist'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'ENTO - Coleoptera'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'ENTO - Diptera'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'ENTO - Non Insect'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">FISH!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">HERB!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">HERB!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">MALA!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MAMM!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">REPTILE!$1:$1</definedName>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="724">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3435,6 +3438,78 @@
   </si>
   <si>
     <t>ATTRIBUTE_DET_METHOD_5</t>
+  </si>
+  <si>
+    <t>do due diligence then assign to 2017.10</t>
+  </si>
+  <si>
+    <t>Checklist #, Field/ Collector #</t>
+  </si>
+  <si>
+    <t>Verbatim date collected</t>
+  </si>
+  <si>
+    <t>Collector 1</t>
+  </si>
+  <si>
+    <t>Order, Family, Subfamily, Genus, Species, Subspecies</t>
+  </si>
+  <si>
+    <t>Updated by</t>
+  </si>
+  <si>
+    <t>Updated date</t>
+  </si>
+  <si>
+    <t>Catalogued/ Verified By, Catalogued/ Verified By Date, Exhibit/ Loan History, Remarks</t>
+  </si>
+  <si>
+    <t>Condition, Description of damage</t>
+  </si>
+  <si>
+    <t>NEW (Permanent) Storage Location, Temporary Location</t>
+  </si>
+  <si>
+    <t>Remarks, Description of damage</t>
+  </si>
+  <si>
+    <t>Habitat, Remarks</t>
+  </si>
+  <si>
+    <t>Any other identification comments, if present</t>
+  </si>
+  <si>
+    <t>Determined By, Date, Remarks</t>
+  </si>
+  <si>
+    <t>SAM IS WORKING ON</t>
+  </si>
+  <si>
+    <t>Remove apostrophes</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>combine 'remarks - data history' and remarks - internal'</t>
+  </si>
+  <si>
+    <t>"male," "female," "sexes mixed," "not recorded"</t>
+  </si>
+  <si>
+    <t>deal with ? rows after physically verifying</t>
+  </si>
+  <si>
+    <t>deal with "missing" specimens in count</t>
+  </si>
+  <si>
+    <t>deal with ? rows after physically verifying; clean up</t>
+  </si>
+  <si>
+    <t>SAM to populate as he reorganizes</t>
   </si>
 </sst>
 </file>
@@ -3676,7 +3751,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3868,6 +3943,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4032,7 +4119,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4196,11 +4283,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6809,11 +6911,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="55" t="s">
+      <c r="B133" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -8252,11 +8354,11 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
@@ -8436,7 +8538,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8804,7 +8906,9 @@
       <c r="E18" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>653</v>
+      </c>
       <c r="G18" s="34" t="s">
         <v>485</v>
       </c>
@@ -9446,13 +9550,13 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="27"/>
@@ -9471,6 +9575,1084 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>700</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1">
+      <c r="C23" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="26" customFormat="1">
+      <c r="C24" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="26" customFormat="1">
+      <c r="C25" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>32</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1">
+      <c r="A27" s="22">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1">
+      <c r="A28" s="22">
+        <v>34</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1">
+      <c r="B30" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1">
+      <c r="A31" s="22">
+        <v>41</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="5">
+        <v>42</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" s="26" customFormat="1">
+      <c r="A33" s="26">
+        <v>43</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="26" customFormat="1">
+      <c r="A34" s="26">
+        <v>44</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1">
+      <c r="A35" s="26">
+        <v>45</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="26" customFormat="1">
+      <c r="C36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="26" customFormat="1">
+      <c r="C37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1">
+      <c r="C38" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A39" s="5">
+        <v>52</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="22">
+        <v>53</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A41" s="22">
+        <v>55</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>723</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A42" s="22">
+        <v>56</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>721</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A43" s="22">
+        <v>57</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>58</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>720</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" s="22" customFormat="1">
+      <c r="A45" s="22">
+        <v>66</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="22">
+        <v>67</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
+        <v>62</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1">
+      <c r="A48" s="22">
+        <v>73</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A49" s="22">
+        <v>74</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1">
+      <c r="A50" s="22">
+        <v>79</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="22" customFormat="1">
+      <c r="A51" s="22">
+        <v>80</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A52" s="22">
+        <v>81</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1">
+      <c r="A53" s="22">
+        <v>86</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="22" customFormat="1">
+      <c r="A54" s="22">
+        <v>129</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="22" customFormat="1">
+      <c r="A55" s="22">
+        <v>130</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="E58" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C57:G57"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10462,13 +11644,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -10493,8 +11675,8 @@
   </sheetPr>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11669,11 +12851,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -11852,7 +13034,7 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -13760,13 +14942,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -14660,13 +15842,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -15530,13 +16712,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -16434,13 +17616,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -17591,13 +18773,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -17776,8 +18958,8 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18753,13 +19935,13 @@
       <c r="G54" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18781,10 +19963,10 @@
   </sheetPr>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20341,13 +21523,13 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
     </row>
     <row r="85" spans="1:9">
       <c r="C85" s="50" t="s">

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" activeTab="11"/>
+    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -15,11 +15,13 @@
     <sheet name="EH - Sci Hist" sheetId="18" r:id="rId6"/>
     <sheet name="EH - Anthro" sheetId="6" r:id="rId7"/>
     <sheet name="ENTO - Non Insect" sheetId="20" r:id="rId8"/>
-    <sheet name="MALA" sheetId="11" r:id="rId9"/>
-    <sheet name="REPTILE" sheetId="15" r:id="rId10"/>
+    <sheet name="ENTO - Hemiptera" sheetId="23" r:id="rId9"/>
+    <sheet name="ENTO - Other Insects" sheetId="22" r:id="rId10"/>
     <sheet name="ENTO - Coleoptera" sheetId="17" r:id="rId11"/>
     <sheet name="ENTO - Diptera" sheetId="21" r:id="rId12"/>
-    <sheet name="HERB" sheetId="19" r:id="rId13"/>
+    <sheet name="MALA" sheetId="11" r:id="rId13"/>
+    <sheet name="REPTILE" sheetId="15" r:id="rId14"/>
+    <sheet name="HERB" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BIRD!$B$1:$F$110</definedName>
@@ -29,12 +31,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'ENTO - Diptera'!$C$1:$G$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'ENTO - Hemiptera'!$C$1:$G$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ENTO - Non Insect'!$B$1:$F$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Other Insects'!$C$1:$G$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">HERB!$D$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">MALA!$B$1:$H$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">HERB!$D$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">MALA!$B$1:$H$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">REPTILE!$C$1:$G$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">REPTILE!$C$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">BIRD!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EGG!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'EH - Anthro'!$1:$1</definedName>
@@ -42,19 +46,21 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'EH - Sci Hist'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'ENTO - Coleoptera'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'ENTO - Diptera'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'ENTO - Hemiptera'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'ENTO - Non Insect'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'ENTO - Other Insects'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">FISH!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">HERB!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">MALA!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">HERB!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">MALA!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MAMM!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">REPTILE!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">REPTILE!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="733">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3290,12 +3296,6 @@
   </si>
   <si>
     <t>may need to edit based on display notes</t>
-  </si>
-  <si>
-    <t>SAM cleaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM is preparing content for </t>
   </si>
   <si>
     <t>"male," "female," "not recorded," "sexes mixed"</t>
@@ -3440,9 +3440,6 @@
     <t>ATTRIBUTE_DET_METHOD_5</t>
   </si>
   <si>
-    <t>do due diligence then assign to 2017.10</t>
-  </si>
-  <si>
     <t>Checklist #, Field/ Collector #</t>
   </si>
   <si>
@@ -3482,9 +3479,6 @@
     <t>Determined By, Date, Remarks</t>
   </si>
   <si>
-    <t>SAM IS WORKING ON</t>
-  </si>
-  <si>
     <t>Remove apostrophes</t>
   </si>
   <si>
@@ -3510,6 +3504,68 @@
   </si>
   <si>
     <t>SAM to populate as he reorganizes</t>
+  </si>
+  <si>
+    <t>need to assign</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[see code table for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTORIG_ELEV_UNITS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Catalogue Number, Catalog Number Suffix</t>
+  </si>
+  <si>
+    <t>Checklist #, Field/Collector #</t>
+  </si>
+  <si>
+    <t>Condition, Description of Damage</t>
+  </si>
+  <si>
+    <t>Family, Genus, Species, Subspecies</t>
+  </si>
+  <si>
+    <t>Verified/ Catalogued By, Date Verified / Catalogued (mm/dd/yyyy), Record Updated By, Date Record Updated (mm/dd/yyyy), Remarks, Exhibit/Loan History, Notes (Internal)</t>
+  </si>
+  <si>
+    <t>Preparations</t>
+  </si>
+  <si>
+    <t>Deaccession Information, Remarks</t>
+  </si>
+  <si>
+    <t>Specimen Verified (Yes/No), Number of Specimens Verified, Temp Status</t>
+  </si>
+  <si>
+    <t>e.g. "whole organism (pinned)," whole organism (dry)"</t>
   </si>
 </sst>
 </file>
@@ -3751,7 +3807,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3946,12 +4002,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4289,20 +4339,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6911,11 +6961,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -6934,6 +6984,4774 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="49"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="22">
+        <v>23</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="22">
+        <v>33</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="22">
+        <v>34</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="22">
+        <v>33</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="22">
+        <v>34</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="22">
+        <v>41</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" ht="38.25">
+      <c r="A32" s="22">
+        <v>42</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A33" s="22">
+        <v>52</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="22">
+        <v>53</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="38.25">
+      <c r="A35" s="22">
+        <v>55</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" ht="25.5">
+      <c r="A36" s="22">
+        <v>56</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" ht="30">
+      <c r="A37" s="22">
+        <v>57</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="22">
+        <v>58</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="22">
+        <v>66</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="22">
+        <v>67</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="22">
+        <v>70</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22">
+        <v>62</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22">
+        <v>73</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" ht="30">
+      <c r="A44" s="22">
+        <v>74</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22">
+        <v>69</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="22">
+        <v>70</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="22">
+        <v>79</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="22">
+        <v>80</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" spans="1:8" ht="30">
+      <c r="A49" s="22">
+        <v>81</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="22">
+        <v>69</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="22">
+        <v>70</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="22">
+        <v>86</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="22">
+        <v>129</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" s="22"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="22">
+        <v>130</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="C56" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C56:G56"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>32</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A24" s="22">
+        <v>33</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1">
+      <c r="A25" s="22">
+        <v>34</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1">
+      <c r="A26" s="22">
+        <v>41</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="63.75">
+      <c r="A27" s="5">
+        <v>42</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A28" s="22">
+        <v>43</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1">
+      <c r="A29" s="22">
+        <v>44</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1">
+      <c r="A30" s="22">
+        <v>45</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="B31" s="36"/>
+      <c r="C31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1">
+      <c r="B32" s="36"/>
+      <c r="C32" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="22" customFormat="1">
+      <c r="B33" s="36"/>
+      <c r="C33" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="22" customFormat="1">
+      <c r="B35" s="36"/>
+      <c r="C35" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1">
+      <c r="B36" s="36"/>
+      <c r="C36" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45">
+      <c r="A37" s="5">
+        <v>52</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A38" s="22">
+        <v>53</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="38.25">
+      <c r="A39" s="22">
+        <v>55</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A40" s="22">
+        <v>56</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="34" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A41" s="22">
+        <v>57</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5">
+        <v>58</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1">
+      <c r="A43" s="22">
+        <v>66</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="22" customFormat="1">
+      <c r="A44" s="22">
+        <v>67</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>62</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="28"/>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="22">
+        <v>73</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A47" s="22">
+        <v>74</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1">
+      <c r="A48" s="22">
+        <v>79</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1">
+      <c r="A49" s="22">
+        <v>80</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A50" s="22">
+        <v>81</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="22" customFormat="1">
+      <c r="A51" s="22">
+        <v>86</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="25.5">
+      <c r="A52" s="5">
+        <v>129</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" s="22" customFormat="1">
+      <c r="A53" s="22">
+        <v>130</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="E56" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C55:G55"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1">
+      <c r="A20" s="22">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1">
+      <c r="A21" s="22">
+        <v>29</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1">
+      <c r="A22" s="22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1">
+      <c r="C23" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="26" customFormat="1">
+      <c r="C24" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="26" customFormat="1">
+      <c r="C25" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>32</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1">
+      <c r="A27" s="22">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1">
+      <c r="A28" s="22">
+        <v>34</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1">
+      <c r="B30" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1">
+      <c r="A31" s="22">
+        <v>41</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="5">
+        <v>42</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" s="26" customFormat="1">
+      <c r="A33" s="26">
+        <v>43</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="26" customFormat="1">
+      <c r="A34" s="26">
+        <v>44</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1">
+      <c r="A35" s="26">
+        <v>45</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="26" customFormat="1">
+      <c r="C36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="26" customFormat="1">
+      <c r="C37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1">
+      <c r="C38" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A39" s="5">
+        <v>52</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="22">
+        <v>53</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="A41" s="22">
+        <v>55</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1" ht="25.5">
+      <c r="A42" s="22">
+        <v>56</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A43" s="22">
+        <v>57</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>58</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>716</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" s="22" customFormat="1">
+      <c r="A45" s="22">
+        <v>66</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="22">
+        <v>67</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
+        <v>62</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1">
+      <c r="A48" s="22">
+        <v>73</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A49" s="22">
+        <v>74</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1">
+      <c r="A50" s="22">
+        <v>79</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="22" customFormat="1">
+      <c r="A51" s="22">
+        <v>80</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A52" s="22">
+        <v>81</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1">
+      <c r="A53" s="22">
+        <v>86</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="22" customFormat="1">
+      <c r="A54" s="22">
+        <v>129</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="22" customFormat="1">
+      <c r="A55" s="22">
+        <v>130</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="E58" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C57:G57"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="119.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="31"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="22" customFormat="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="22" customFormat="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="22" customFormat="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="22" customFormat="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="22" customFormat="1">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="22" customFormat="1">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="22" customFormat="1">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="22" customFormat="1">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="22" customFormat="1">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="22" customFormat="1">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="22" customFormat="1">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>669</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" s="22" customFormat="1">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="22" customFormat="1">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="22" customFormat="1">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="22" customFormat="1">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="22" customFormat="1">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="22" customFormat="1">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="22" customFormat="1">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="63.75">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="22" customFormat="1">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="22" customFormat="1">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="22" customFormat="1">
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="22" customFormat="1">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="22" customFormat="1">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="22" customFormat="1">
+      <c r="A46" s="22">
+        <v>45</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="22" customFormat="1">
+      <c r="A47" s="22">
+        <v>46</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="22" customFormat="1" ht="38.25">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="22" customFormat="1" ht="60">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="A52" s="22">
+        <v>51</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="22" customFormat="1">
+      <c r="C53" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" s="22" customFormat="1">
+      <c r="C54" s="50" t="s">
+        <v>722</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="22">
+        <v>52</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" s="22" customFormat="1">
+      <c r="A56" s="22">
+        <v>53</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="22" customFormat="1">
+      <c r="A57" s="22">
+        <v>54</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="22">
+        <v>55</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" s="22" customFormat="1">
+      <c r="A59" s="22">
+        <v>56</v>
+      </c>
+      <c r="C59" s="50"/>
+      <c r="D59" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A60" s="22">
+        <v>57</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C60" s="50"/>
+      <c r="D60" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="22" customFormat="1">
+      <c r="A61" s="22">
+        <v>58</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="22" customFormat="1">
+      <c r="A62" s="22">
+        <v>59</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" s="22" customFormat="1">
+      <c r="A63" s="22">
+        <v>60</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="A64" s="22">
+        <v>61</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="22" customFormat="1">
+      <c r="A65" s="22">
+        <v>62</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="22" customFormat="1">
+      <c r="A66" s="22">
+        <v>63</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="22" customFormat="1">
+      <c r="A67" s="22">
+        <v>64</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="1:8" s="26" customFormat="1">
+      <c r="A68" s="22">
+        <v>65</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="26" customFormat="1" ht="30">
+      <c r="A69" s="22">
+        <v>66</v>
+      </c>
+      <c r="C69" s="51"/>
+      <c r="D69" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="26" customFormat="1">
+      <c r="A70" s="22">
+        <v>67</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="26" customFormat="1">
+      <c r="A71" s="22">
+        <v>68</v>
+      </c>
+      <c r="C71" s="53"/>
+      <c r="D71" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="26" customFormat="1">
+      <c r="A72" s="22">
+        <v>69</v>
+      </c>
+      <c r="C72" s="53"/>
+      <c r="D72" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="1:8" s="26" customFormat="1">
+      <c r="A73" s="22">
+        <v>70</v>
+      </c>
+      <c r="C73" s="53"/>
+      <c r="D73" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="26" customFormat="1" ht="30">
+      <c r="A74" s="22">
+        <v>71</v>
+      </c>
+      <c r="C74" s="51"/>
+      <c r="D74" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="26" customFormat="1">
+      <c r="A75" s="22">
+        <v>72</v>
+      </c>
+      <c r="C75" s="53"/>
+      <c r="D75" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="26" customFormat="1">
+      <c r="A76" s="22">
+        <v>73</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="26" customFormat="1">
+      <c r="A77" s="22">
+        <v>74</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" s="26" customFormat="1">
+      <c r="A78" s="22">
+        <v>75</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="26" customFormat="1">
+      <c r="A79" s="22">
+        <v>76</v>
+      </c>
+      <c r="C79" s="53"/>
+      <c r="D79" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="26" customFormat="1">
+      <c r="A80" s="22">
+        <v>77</v>
+      </c>
+      <c r="C80" s="53"/>
+      <c r="D80" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="26" customFormat="1">
+      <c r="A81" s="22">
+        <v>78</v>
+      </c>
+      <c r="C81" s="53"/>
+      <c r="D81" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="26" customFormat="1">
+      <c r="A82" s="22">
+        <v>79</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>690</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="22">
+        <v>80</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" s="22" customFormat="1">
+      <c r="A84" s="22">
+        <v>81</v>
+      </c>
+      <c r="C84" s="50"/>
+      <c r="D84" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="D86" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="C87" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="F87" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D86:H86"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="39" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CDATA DICTIONARY - MALACOLOGY</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8354,11 +13172,11 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
@@ -8530,2129 +13348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H56"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="31"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="22" customFormat="1">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="22" customFormat="1">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="22" customFormat="1">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="34" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="22" customFormat="1">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
-      <c r="A20" s="22">
-        <v>28</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="22" customFormat="1">
-      <c r="A21" s="22">
-        <v>29</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="40" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="22" customFormat="1">
-      <c r="A22" s="22">
-        <v>30</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5">
-        <v>32</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A24" s="22">
-        <v>33</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="22" customFormat="1">
-      <c r="A25" s="22">
-        <v>34</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1">
-      <c r="A26" s="22">
-        <v>41</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="63.75">
-      <c r="A27" s="5">
-        <v>42</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A28" s="22">
-        <v>43</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
-      <c r="A29" s="22">
-        <v>44</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
-      <c r="A30" s="22">
-        <v>45</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="B31" s="36"/>
-      <c r="C31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="22" customFormat="1">
-      <c r="B32" s="36"/>
-      <c r="C32" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="22" customFormat="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="B34" s="36"/>
-      <c r="C34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="22" customFormat="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="22" customFormat="1">
-      <c r="B36" s="36"/>
-      <c r="C36" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45">
-      <c r="A37" s="5">
-        <v>52</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A38" s="22">
-        <v>53</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="22" customFormat="1" ht="38.25">
-      <c r="A39" s="22">
-        <v>55</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A40" s="22">
-        <v>56</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A41" s="22">
-        <v>57</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5">
-        <v>58</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" s="22" customFormat="1">
-      <c r="A43" s="22">
-        <v>66</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="22" customFormat="1">
-      <c r="A44" s="22">
-        <v>67</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5">
-        <v>62</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:8" s="22" customFormat="1">
-      <c r="A46" s="22">
-        <v>73</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A47" s="22">
-        <v>74</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1">
-      <c r="A48" s="22">
-        <v>79</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="22" customFormat="1">
-      <c r="A49" s="22">
-        <v>80</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A50" s="22">
-        <v>81</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="22" customFormat="1">
-      <c r="A51" s="22">
-        <v>86</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="25.5">
-      <c r="A52" s="5">
-        <v>129</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" s="22" customFormat="1">
-      <c r="A53" s="22">
-        <v>130</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="C55" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="E56" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C55:G55"/>
-  </mergeCells>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="119.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="31"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="22" customFormat="1">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="22" customFormat="1">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="22" customFormat="1">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="22" customFormat="1">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>700</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>715</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="22" customFormat="1">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>715</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>715</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
-      <c r="A20" s="22">
-        <v>28</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="22" customFormat="1">
-      <c r="A21" s="22">
-        <v>29</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>715</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="22" customFormat="1">
-      <c r="A22" s="22">
-        <v>30</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="26" customFormat="1">
-      <c r="C23" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="26" customFormat="1">
-      <c r="C24" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="26" customFormat="1">
-      <c r="C25" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5">
-        <v>32</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" s="22" customFormat="1">
-      <c r="A27" s="22">
-        <v>33</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
-      <c r="A28" s="22">
-        <v>34</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
-      <c r="B30" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="22" customFormat="1">
-      <c r="A31" s="22">
-        <v>41</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="5">
-        <v>42</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>718</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" s="26" customFormat="1">
-      <c r="A33" s="26">
-        <v>43</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="26" customFormat="1">
-      <c r="A34" s="26">
-        <v>44</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="26" customFormat="1">
-      <c r="A35" s="26">
-        <v>45</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="26" customFormat="1">
-      <c r="C36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="26" customFormat="1">
-      <c r="C37" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="26" customFormat="1">
-      <c r="C38" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A39" s="5">
-        <v>52</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="22">
-        <v>53</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" ht="30">
-      <c r="A41" s="22">
-        <v>55</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>723</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="22" customFormat="1" ht="25.5">
-      <c r="A42" s="22">
-        <v>56</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" ht="45">
-      <c r="A43" s="22">
-        <v>57</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>722</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5">
-        <v>58</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" s="22" customFormat="1">
-      <c r="A45" s="22">
-        <v>66</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="22" customFormat="1">
-      <c r="A46" s="22">
-        <v>67</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5">
-        <v>62</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1">
-      <c r="A48" s="22">
-        <v>73</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A49" s="22">
-        <v>74</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="22" customFormat="1">
-      <c r="A50" s="22">
-        <v>79</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="22" customFormat="1">
-      <c r="A51" s="22">
-        <v>80</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A52" s="22">
-        <v>81</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="22" customFormat="1">
-      <c r="A53" s="22">
-        <v>86</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="22" customFormat="1">
-      <c r="A54" s="22">
-        <v>129</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="22" customFormat="1">
-      <c r="A55" s="22">
-        <v>130</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="C57" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="E58" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C57:G57"/>
-  </mergeCells>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11644,13 +14340,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -12851,11 +15547,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -13035,7 +15731,7 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView topLeftCell="B79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14942,13 +17638,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="57" t="s">
+      <c r="B110" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -15842,13 +18538,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -16712,13 +19408,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -17616,13 +20312,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -18773,13 +21469,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -18958,8 +21654,8 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19701,7 +22397,7 @@
         <v>70</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>663</v>
@@ -19869,7 +22565,7 @@
         <v>70</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>663</v>
@@ -19935,13 +22631,13 @@
       <c r="G54" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19961,1591 +22657,1091 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="22" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="119.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="31"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="49"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:8">
+      <c r="C1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="22" customFormat="1">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="22" customFormat="1">
+      <c r="G2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>126</v>
+      <c r="D3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="G3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="24" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="F4" s="21"/>
+      <c r="G4" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="22" customFormat="1">
+      <c r="F5" s="21"/>
+      <c r="G5" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="22" customFormat="1">
+      <c r="E6" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
+      <c r="E7" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>666</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>126</v>
+      <c r="D8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>126</v>
+      <c r="D9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>468</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="G9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="22" customFormat="1">
+      <c r="G9" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="22" customFormat="1">
+      <c r="G10" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>126</v>
+      <c r="D11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>645</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="G11" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="25" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="22" customFormat="1">
+      <c r="G12" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="22" t="s">
+        <v>467</v>
+      </c>
       <c r="F13" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="G13" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="G13" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>126</v>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>544</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="D16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="G16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>126</v>
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="24" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="22" customFormat="1" ht="30">
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>679</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>126</v>
+      <c r="D18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="G18" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="G18" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="45">
       <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>126</v>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="24" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>126</v>
+      <c r="D20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="G20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="G20" s="25" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="22" customFormat="1">
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="22" customFormat="1">
+      <c r="G21" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>126</v>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="G22" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="22" customFormat="1">
-      <c r="A23" s="22">
-        <v>22</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="11" t="s">
+      <c r="G22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="22" t="s">
+      <c r="E24" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="22" customFormat="1">
-      <c r="A24" s="22">
-        <v>23</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="22" customFormat="1">
-      <c r="A25" s="22">
-        <v>24</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="11" t="s">
+      <c r="G24" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="22" t="s">
+        <v>660</v>
+      </c>
       <c r="F25" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="G25" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="22" customFormat="1">
+      <c r="G25" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="22">
-        <v>25</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>427</v>
+      </c>
       <c r="F26" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="22">
-        <v>26</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>669</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" s="22" customFormat="1">
+        <v>34</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="22">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>648</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="G28" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="22" customFormat="1">
+      <c r="G28" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="22">
-        <v>28</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G29" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="22" customFormat="1">
+      <c r="G29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="22">
-        <v>29</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>126</v>
+        <v>41</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="G30" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="51">
+      <c r="A31" s="22">
+        <v>42</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" ht="45">
+      <c r="A32" s="22">
+        <v>52</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="30">
+      <c r="A33" s="22">
+        <v>53</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" ht="38.25">
+      <c r="A34" s="22">
+        <v>55</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="25.5">
+      <c r="A35" s="22">
+        <v>56</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" ht="30">
+      <c r="A36" s="22">
+        <v>57</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="22">
+        <v>58</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" ht="45">
+      <c r="C38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" ht="30">
+      <c r="C39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" ht="25.5">
+      <c r="C40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" ht="30">
+      <c r="C41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22">
+        <v>66</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="22">
+        <v>67</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22">
+        <v>70</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="22">
+        <v>62</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="22" customFormat="1">
-      <c r="A31" s="22">
-        <v>30</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="22" customFormat="1">
-      <c r="A32" s="22">
-        <v>31</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="G32" s="22" t="s">
+      <c r="G46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="22">
+        <v>73</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="30">
+      <c r="A48" s="22">
+        <v>74</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="22">
+        <v>69</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="22">
+        <v>70</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="22">
+        <v>79</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="22" customFormat="1">
-      <c r="A33" s="22">
-        <v>32</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="22" customFormat="1">
-      <c r="A34" s="22">
-        <v>33</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="63.75">
-      <c r="A35" s="22">
-        <v>34</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>677</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" s="22" customFormat="1" ht="25.5">
-      <c r="A36" s="22">
-        <v>35</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="22" customFormat="1">
-      <c r="A37" s="22">
-        <v>36</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="22" customFormat="1">
-      <c r="A38" s="22">
-        <v>37</v>
-      </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="22" customFormat="1" ht="25.5">
-      <c r="A39" s="22">
-        <v>38</v>
-      </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="22" customFormat="1">
-      <c r="A40" s="22">
-        <v>39</v>
-      </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="22" customFormat="1">
-      <c r="A41" s="22">
-        <v>40</v>
-      </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="22" customFormat="1" ht="25.5">
-      <c r="A42" s="22">
-        <v>41</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="22" customFormat="1">
-      <c r="A43" s="22">
-        <v>42</v>
-      </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="22" customFormat="1">
-      <c r="A44" s="22">
-        <v>43</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="11" t="s">
+      <c r="G51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="22">
+        <v>80</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:8" ht="30">
+      <c r="A53" s="22">
+        <v>81</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="H53" s="22"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="22">
+        <v>69</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="22">
+        <v>70</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="22">
+        <v>86</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="22">
+        <v>129</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="39" t="s">
+        <v>685</v>
+      </c>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="22">
         <v>130</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="22" customFormat="1" ht="25.5">
-      <c r="A45" s="22">
-        <v>44</v>
-      </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="22" customFormat="1">
-      <c r="A46" s="22">
-        <v>45</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="22" customFormat="1">
-      <c r="A47" s="22">
-        <v>46</v>
-      </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="45">
-      <c r="A48" s="22">
-        <v>47</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>670</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A49" s="22">
-        <v>48</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>671</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="22" customFormat="1" ht="38.25">
-      <c r="A50" s="22">
-        <v>49</v>
-      </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="22" customFormat="1" ht="60">
-      <c r="A51" s="22">
-        <v>50</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="24" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="22" customFormat="1" ht="45">
-      <c r="A52" s="22">
-        <v>51</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="22">
-        <v>52</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>672</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" s="22" customFormat="1">
-      <c r="A54" s="22">
-        <v>53</v>
-      </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="22" customFormat="1">
-      <c r="A55" s="22">
-        <v>54</v>
-      </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="22">
-        <v>55</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="28"/>
-    </row>
-    <row r="57" spans="1:9" s="22" customFormat="1">
-      <c r="A57" s="22">
-        <v>56</v>
-      </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A58" s="22">
-        <v>57</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="12"/>
+      <c r="C58" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="F58" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="22" customFormat="1">
-      <c r="A59" s="22">
-        <v>58</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="22" customFormat="1">
-      <c r="A60" s="22">
-        <v>59</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="H60" s="23"/>
-    </row>
-    <row r="61" spans="1:9" s="22" customFormat="1">
-      <c r="A61" s="22">
-        <v>60</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A62" s="22">
-        <v>61</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="22" customFormat="1">
-      <c r="A63" s="22">
-        <v>62</v>
-      </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="22" customFormat="1">
-      <c r="A64" s="22">
-        <v>63</v>
-      </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="22" customFormat="1">
-      <c r="A65" s="22">
-        <v>64</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="H65" s="23"/>
-    </row>
-    <row r="66" spans="1:8" s="26" customFormat="1">
-      <c r="A66" s="22">
-        <v>65</v>
-      </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="26" customFormat="1" ht="30">
-      <c r="A67" s="22">
-        <v>66</v>
-      </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="26" customFormat="1">
-      <c r="A68" s="22">
-        <v>67</v>
-      </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="26" customFormat="1">
-      <c r="A69" s="22">
-        <v>68</v>
-      </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="26" customFormat="1">
-      <c r="A70" s="22">
-        <v>69</v>
-      </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="1:8" s="26" customFormat="1">
-      <c r="A71" s="22">
-        <v>70</v>
-      </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="26" customFormat="1" ht="30">
-      <c r="A72" s="22">
-        <v>71</v>
-      </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="26" customFormat="1">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="26" customFormat="1">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="26" customFormat="1">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="H75" s="23"/>
-    </row>
-    <row r="76" spans="1:8" s="26" customFormat="1">
-      <c r="A76" s="22">
-        <v>75</v>
-      </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="26" customFormat="1">
-      <c r="A77" s="22">
-        <v>76</v>
-      </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="26" customFormat="1">
-      <c r="A78" s="22">
-        <v>77</v>
-      </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="16" t="s">
-        <v>683</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="26" customFormat="1">
-      <c r="A79" s="22">
-        <v>78</v>
-      </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="26" customFormat="1">
-      <c r="A80" s="22">
-        <v>79</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="30">
-      <c r="A81" s="22">
-        <v>80</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>676</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" s="22" customFormat="1">
-      <c r="A82" s="22">
-        <v>81</v>
-      </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="G82" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H82" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="D84" s="58" t="s">
+      <c r="G58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="22"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="C60" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="C85" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="F85" s="27"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="C60:G60"/>
   </mergeCells>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="39" fitToHeight="6" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="6" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CDATA DICTIONARY - MALACOLOGY</oddHeader>
+    <oddHeader>&amp;CDATA DICTIONARY - ICHTHYOLOGY</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'EH - Sci Hist'!$B$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ENTO - Coleoptera'!$C$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'ENTO - Diptera'!$C$1:$G$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'ENTO - Hemiptera'!$C$1:$G$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'ENTO - Hemiptera'!$B$1:$F$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ENTO - Non Insect'!$B$1:$F$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Other Insects'!$C$1:$G$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="734">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3566,6 +3566,9 @@
   </si>
   <si>
     <t>e.g. "whole organism (pinned)," whole organism (dry)"</t>
+  </si>
+  <si>
+    <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record [number] has been split…"</t>
   </si>
 </sst>
 </file>
@@ -4345,14 +4348,14 @@
     <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6961,11 +6964,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -7973,7 +7976,7 @@
       <c r="E53" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="61"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="39" t="s">
         <v>368</v>
       </c>
@@ -8001,13 +8004,13 @@
       <c r="H54" s="22"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9042,13 +9045,13 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="27"/>
@@ -10117,13 +10120,13 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
     </row>
     <row r="58" spans="1:7">
       <c r="E58" s="27"/>
@@ -11724,13 +11727,13 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="D86" s="60" t="s">
+      <c r="D86" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
     </row>
     <row r="87" spans="1:9">
       <c r="C87" s="50" t="s">
@@ -13172,11 +13175,11 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
@@ -14340,13 +14343,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -15547,11 +15550,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -17638,13 +17641,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="59" t="s">
+      <c r="B110" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="59"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -18538,13 +18541,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -19408,13 +19411,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -20312,13 +20315,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -21469,13 +21472,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -22631,13 +22634,13 @@
       <c r="G54" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22657,1085 +22660,1079 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="119.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="49"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="2" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="119.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="49"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="48" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="48" t="s">
         <v>128</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="F1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>126</v>
+      <c r="C3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="24" t="s">
         <v>725</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>126</v>
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>645</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="F11" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="30">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="C12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="D13" s="22" t="s">
+        <v>467</v>
+      </c>
       <c r="E13" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="30">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>126</v>
+      <c r="C14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="30">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="45">
+      <c r="F16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.25" customHeight="1">
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>126</v>
+      <c r="C17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="30">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>126</v>
+      <c r="C18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="F18" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="45">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="45">
       <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>126</v>
+      <c r="C19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="22">
         <v>28</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>126</v>
+      <c r="C20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="F20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="22">
         <v>29</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="22">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>126</v>
+      <c r="C22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="C23" s="11" t="s">
+      <c r="F22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24" s="11" t="s">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="F24" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="11" t="s">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="11" t="s">
         <v>656</v>
       </c>
+      <c r="D25" s="22" t="s">
+        <v>660</v>
+      </c>
       <c r="E25" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="F25" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="F25" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="22">
         <v>33</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>126</v>
+      <c r="C26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F26" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="22">
         <v>34</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>126</v>
+      <c r="C27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F27" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="F27" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="22">
         <v>33</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>126</v>
+      <c r="C28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>648</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="F28" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="22">
         <v>34</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>126</v>
+      <c r="C29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F29" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="F29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="22">
         <v>41</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>126</v>
+      <c r="C30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:8" ht="51">
+      <c r="F30" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" ht="51">
       <c r="A31" s="22">
         <v>42</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="34" t="s">
+      <c r="D31" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" ht="45">
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="45">
       <c r="A32" s="22">
         <v>52</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>126</v>
+      <c r="C32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F32" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="F32" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" ht="30">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
       <c r="A33" s="22">
         <v>53</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>126</v>
+      <c r="C33" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="F33" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" ht="38.25">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="38.25">
       <c r="A34" s="22">
         <v>55</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="F34" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="25.5">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="25.5">
       <c r="A35" s="22">
         <v>56</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="C35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="F35" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" ht="30">
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="22">
         <v>57</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>126</v>
+      <c r="C36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="F36" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="22">
         <v>58</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="F37" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="1:8" ht="45">
-      <c r="C38" s="11" t="s">
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="45">
+      <c r="B38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>126</v>
+      <c r="C38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F38" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="1:8" ht="30">
-      <c r="C39" s="11" t="s">
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="B39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>126</v>
+      <c r="C39" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="F39" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" ht="25.5">
-      <c r="C40" s="11" t="s">
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="25.5">
+      <c r="B40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="C40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="F40" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="C41" s="11" t="s">
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="B41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>126</v>
+      <c r="C41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="F41" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="F41" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="C42" s="11" t="s">
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="22">
         <v>66</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="D43" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="E43" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="F43" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="22">
         <v>67</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="22">
         <v>70</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="G45" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="F45" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="22">
         <v>62</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="D46" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="E46" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="F46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="22">
         <v>73</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>66</v>
       </c>
+      <c r="D47" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="E47" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F47" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8" ht="30">
+      <c r="F47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="22">
         <v>74</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="D48" s="22" t="s">
+        <v>383</v>
+      </c>
       <c r="E48" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="F48" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="F48" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="22">
         <v>69</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>632</v>
       </c>
+      <c r="D49" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="E49" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="F49" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="H49" s="22"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="22">
         <v>70</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="D50" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="F50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="22">
         <v>79</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="D51" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="E51" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="F51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="22">
         <v>80</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="D52" s="22" t="s">
+        <v>329</v>
+      </c>
       <c r="E52" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="F52" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" ht="30">
+      <c r="F52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="22">
         <v>81</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="D53" s="22" t="s">
+        <v>435</v>
+      </c>
       <c r="E53" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="F53" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="F53" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="H53" s="22"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="22">
         <v>69</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>673</v>
       </c>
+      <c r="D54" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="E54" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F54" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="F54" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="22">
         <v>70</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="D55" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="G55" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="F55" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="22">
         <v>86</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="D56" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="E56" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G56" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="F56" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="22">
         <v>129</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="39" t="s">
+      <c r="E57" s="47"/>
+      <c r="F57" s="25" t="s">
         <v>685</v>
       </c>
-      <c r="H57" s="22"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="22">
         <v>130</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>126</v>
+      <c r="C58" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="F58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G58" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58" s="22"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="C60" s="60" t="s">
+      <c r="F58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B60:F60"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ENTO - Other Insects'!$C$1:$G$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">FISH!$B$1:$F$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">HERB!$D$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">MALA!$B$1:$H$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">MALA!$B$1:$H$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAMM!$B$1:$F$133</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">REPTILE!$C$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">BIRD!$1:$1</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="731">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -2463,9 +2463,6 @@
     <t>Unknown Numbers, Field/ Collector #, Old CHAS #</t>
   </si>
   <si>
-    <t>Delete all return carriages in Excel</t>
-  </si>
-  <si>
     <t>"CHAS:Mala"</t>
   </si>
   <si>
@@ -2488,9 +2485,6 @@
   </si>
   <si>
     <t>CHAS malacology specimens are maintained as lots, so this generally should be a number  &gt;1</t>
-  </si>
-  <si>
-    <t>Much verification needed. Clean columns: Number of Pieces, Number of Specimens from Records, Number of Specimens Verified, Re-verified from drawer</t>
   </si>
   <si>
     <t>Assumed to be collector unless otherwise stated; for "not recorded" the determiner is typically "Erica Krimmel"</t>
@@ -3157,9 +3151,6 @@
     <t>Research Project Use</t>
   </si>
   <si>
-    <t>Must be unique, needs attention; deal with duplicate #s</t>
-  </si>
-  <si>
     <t>ATTRIBUTE_DET_METHOD_2</t>
   </si>
   <si>
@@ -3292,12 +3283,6 @@
     <t>Common Name, Remarks</t>
   </si>
   <si>
-    <t>Need to fill ?</t>
-  </si>
-  <si>
-    <t>may need to edit based on display notes</t>
-  </si>
-  <si>
     <t>"male," "female," "not recorded," "sexes mixed"</t>
   </si>
   <si>
@@ -3307,16 +3292,7 @@
     <t>ATTRIBUTE_DET_METHOD_3</t>
   </si>
   <si>
-    <t>Needs cleaning and merging w/ Sam's data</t>
-  </si>
-  <si>
-    <t>clean HW Cory, Internal, Provenance; add to collection, cat num, catalog book match</t>
-  </si>
-  <si>
     <t>ATTRIBUTE_DET_METHOD_4</t>
-  </si>
-  <si>
-    <t>need to incorporate Station and Stratum columns</t>
   </si>
   <si>
     <t>Habitat, Locality (original, complete)</t>
@@ -3374,9 +3350,6 @@
   </si>
   <si>
     <t>"feet," "fathoms"</t>
-  </si>
-  <si>
-    <t>add info from remarks, e.g. barnacles</t>
   </si>
   <si>
     <r>
@@ -3509,12 +3482,6 @@
     <t>need to assign</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[see code table for </t>
     </r>
@@ -3569,6 +3536,30 @@
   </si>
   <si>
     <t>Legacy internal notes-type data, consisting of sections for "Internal Notes," "Display Notes," "Exhibit and Loan History," and "Data History." Signal phrases include, "This record [number] has been split…"</t>
+  </si>
+  <si>
+    <t>"missing"</t>
+  </si>
+  <si>
+    <t>For CHAS lots with missing specimens, this part captures the missing quantity</t>
+  </si>
+  <si>
+    <t>Condition, Condition Notes, Number of Pieces</t>
+  </si>
+  <si>
+    <t>Mostly "unchecked" since these are missing specimens</t>
+  </si>
+  <si>
+    <t>"unchecked"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remove " "</t>
+  </si>
+  <si>
+    <t>Must be unique, needs attention; deal with duplicate #s; check FICs against Other ID #s</t>
+  </si>
+  <si>
+    <t>add internal notes columns (2)</t>
   </si>
 </sst>
 </file>
@@ -7078,7 +7069,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -7094,7 +7085,7 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="34" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H5" s="22"/>
     </row>
@@ -7106,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="38" t="s">
@@ -7122,7 +7113,7 @@
         <v>133</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="38" t="s">
@@ -7183,7 +7174,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="38" t="s">
@@ -7202,7 +7193,7 @@
         <v>126</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>162</v>
@@ -7245,7 +7236,7 @@
         <v>423</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H13" s="22"/>
     </row>
@@ -7263,7 +7254,7 @@
         <v>424</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>365</v>
@@ -7343,7 +7334,7 @@
         <v>425</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>485</v>
@@ -7367,7 +7358,7 @@
         <v>280</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H19" s="22"/>
     </row>
@@ -7382,7 +7373,7 @@
         <v>126</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>162</v>
@@ -7422,7 +7413,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>167</v>
@@ -7434,42 +7425,42 @@
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>654</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>657</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="33" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>723</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>659</v>
-      </c>
       <c r="G25" s="39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H25" s="22"/>
     </row>
@@ -7481,11 +7472,11 @@
         <v>282</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="34" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -7506,7 +7497,7 @@
         <v>162</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H27" s="22"/>
     </row>
@@ -7521,7 +7512,7 @@
         <v>126</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>174</v>
@@ -7542,13 +7533,13 @@
         <v>126</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>162</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H29" s="22"/>
     </row>
@@ -7563,7 +7554,7 @@
         <v>126</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>174</v>
@@ -7587,7 +7578,7 @@
         <v>177</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>135</v>
@@ -7602,11 +7593,11 @@
         <v>38</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="34" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H32" s="22"/>
     </row>
@@ -7621,13 +7612,13 @@
         <v>126</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H33" s="22"/>
     </row>
@@ -7645,7 +7636,7 @@
         <v>183</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>247</v>
@@ -7660,10 +7651,10 @@
         <v>302</v>
       </c>
       <c r="E35" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>497</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>498</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>458</v>
@@ -7681,11 +7672,11 @@
         <v>126</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="34" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H36" s="22"/>
     </row>
@@ -7700,10 +7691,10 @@
         <v>126</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>479</v>
@@ -7722,7 +7713,7 @@
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="34" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H38" s="22"/>
     </row>
@@ -7756,7 +7747,7 @@
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H40" s="22"/>
     </row>
@@ -7768,7 +7759,7 @@
         <v>70</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="38" t="s">
@@ -7820,7 +7811,7 @@
         <v>67</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>384</v>
@@ -7838,7 +7829,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="39" t="s">
@@ -7854,7 +7845,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="38" t="s">
@@ -7870,7 +7861,7 @@
         <v>72</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>162</v>
@@ -7909,7 +7900,7 @@
         <v>476</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>466</v>
@@ -7924,7 +7915,7 @@
         <v>76</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="39" t="s">
@@ -7940,7 +7931,7 @@
         <v>70</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="38" t="s">
@@ -7993,7 +7984,7 @@
         <v>126</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>222</v>
@@ -8109,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -8128,7 +8119,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>3</v>
@@ -8152,7 +8143,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="38" t="s">
@@ -8169,7 +8160,7 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="38" t="s">
@@ -8181,7 +8172,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>5</v>
@@ -8205,7 +8196,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>6</v>
@@ -8235,7 +8226,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="38" t="s">
@@ -8327,7 +8318,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -8349,7 +8340,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -8402,7 +8393,7 @@
         <v>425</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>485</v>
@@ -8441,7 +8432,7 @@
         <v>126</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>162</v>
@@ -8481,7 +8472,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>167</v>
@@ -8511,7 +8502,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>29</v>
@@ -8541,7 +8532,7 @@
         <v>126</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>174</v>
@@ -8565,7 +8556,7 @@
         <v>177</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>135</v>
@@ -8579,7 +8570,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="34" t="s">
@@ -8614,7 +8605,7 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="38" t="s">
@@ -8631,7 +8622,7 @@
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="38" t="s">
@@ -8659,7 +8650,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="38" t="s">
@@ -8673,7 +8664,7 @@
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="38" t="s">
@@ -8701,7 +8692,7 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="38" t="s">
@@ -8715,7 +8706,7 @@
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="38" t="s">
@@ -8736,7 +8727,7 @@
         <v>350</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>478</v>
@@ -8758,7 +8749,7 @@
         <v>183</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>395</v>
@@ -8774,10 +8765,10 @@
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>497</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>498</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>458</v>
@@ -8795,7 +8786,7 @@
         <v>126</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="34" t="s">
@@ -8814,7 +8805,7 @@
         <v>126</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>188</v>
@@ -8922,7 +8913,7 @@
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>384</v>
@@ -8941,7 +8932,7 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>162</v>
@@ -8982,7 +8973,7 @@
         <v>476</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>466</v>
@@ -9035,7 +9026,7 @@
         <v>126</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>222</v>
@@ -9131,7 +9122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>1</v>
@@ -9154,7 +9145,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -9164,7 +9155,7 @@
         <v>127</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="22" customFormat="1">
@@ -9179,7 +9170,7 @@
         <v>470</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="22" customFormat="1">
@@ -9251,7 +9242,7 @@
         <v>163</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1">
@@ -9259,7 +9250,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>7</v>
@@ -9268,7 +9259,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>135</v>
@@ -9291,7 +9282,7 @@
         <v>162</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
@@ -9308,7 +9299,7 @@
         <v>388</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1">
@@ -9321,7 +9312,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="22" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>368</v>
@@ -9332,7 +9323,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>10</v>
@@ -9347,7 +9338,7 @@
         <v>279</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1">
@@ -9355,7 +9346,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -9367,7 +9358,7 @@
         <v>277</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="22" customFormat="1" ht="30">
@@ -9375,7 +9366,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -9426,7 +9417,7 @@
         <v>425</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>485</v>
@@ -9464,13 +9455,13 @@
         <v>126</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>162</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="22" customFormat="1">
@@ -9478,7 +9469,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>25</v>
@@ -9490,7 +9481,7 @@
         <v>165</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="22" customFormat="1">
@@ -9498,7 +9489,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>26</v>
@@ -9507,7 +9498,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>167</v>
@@ -9518,43 +9509,43 @@
     </row>
     <row r="23" spans="1:8" s="26" customFormat="1">
       <c r="C23" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="26" customFormat="1">
       <c r="C24" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="25" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="26" customFormat="1">
       <c r="C25" s="11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9562,7 +9553,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>28</v>
@@ -9592,7 +9583,7 @@
         <v>162</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="22" customFormat="1">
@@ -9600,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C28" s="55" t="s">
         <v>30</v>
@@ -9609,7 +9600,7 @@
         <v>126</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>174</v>
@@ -9627,18 +9618,18 @@
         <v>126</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>162</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="22" customFormat="1">
       <c r="B30" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C30" s="55" t="s">
         <v>32</v>
@@ -9647,7 +9638,7 @@
         <v>126</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>174</v>
@@ -9661,7 +9652,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>37</v>
@@ -9673,7 +9664,7 @@
         <v>177</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>135</v>
@@ -9684,16 +9675,16 @@
         <v>42</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -9709,7 +9700,7 @@
         <v>470</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="26" customFormat="1">
@@ -9751,7 +9742,7 @@
         <v>470</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="26" customFormat="1">
@@ -9783,7 +9774,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C39" s="55" t="s">
         <v>45</v>
@@ -9792,10 +9783,10 @@
         <v>126</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>135</v>
@@ -9817,10 +9808,10 @@
         <v>183</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="30">
@@ -9828,20 +9819,20 @@
         <v>55</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>302</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>498</v>
-      </c>
       <c r="G41" s="56" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="25.5">
@@ -9849,7 +9840,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>49</v>
@@ -9858,10 +9849,10 @@
         <v>126</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="45">
@@ -9869,7 +9860,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>50</v>
@@ -9878,7 +9869,7 @@
         <v>126</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>188</v>
@@ -9892,7 +9883,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>51</v>
@@ -9901,7 +9892,7 @@
         <v>249</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -9935,7 +9926,7 @@
         <v>194</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9943,7 +9934,7 @@
         <v>62</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>65</v>
@@ -9964,7 +9955,7 @@
         <v>73</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>66</v>
@@ -9990,10 +9981,10 @@
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>459</v>
@@ -10004,14 +9995,14 @@
         <v>79</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C50" s="55" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>162</v>
@@ -10025,7 +10016,7 @@
         <v>80</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C51" s="55" t="s">
         <v>73</v>
@@ -10054,7 +10045,7 @@
         <v>476</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>466</v>
@@ -10065,7 +10056,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C53" s="55" t="s">
         <v>79</v>
@@ -10093,7 +10084,7 @@
         <v>221</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="22" customFormat="1">
@@ -10101,7 +10092,7 @@
         <v>130</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C55" s="55" t="s">
         <v>123</v>
@@ -10110,7 +10101,7 @@
         <v>126</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>222</v>
@@ -10149,12 +10140,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10173,7 +10164,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>474</v>
@@ -10232,15 +10223,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" ht="30">
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -10259,9 +10250,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="C5" s="50"/>
+        <v>612</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>728</v>
+      </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
@@ -10270,14 +10263,14 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
@@ -10293,7 +10286,7 @@
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="11" t="s">
         <v>133</v>
       </c>
@@ -10310,10 +10303,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>5</v>
@@ -10337,7 +10330,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -10428,7 +10421,7 @@
         <v>423</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
@@ -10457,7 +10450,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -10518,9 +10511,7 @@
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>677</v>
-      </c>
+      <c r="C18" s="50"/>
       <c r="D18" s="11" t="s">
         <v>14</v>
       </c>
@@ -10531,10 +10522,10 @@
         <v>425</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="45">
@@ -10542,7 +10533,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="11" t="s">
@@ -10573,7 +10564,7 @@
         <v>126</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>162</v>
@@ -10627,14 +10618,14 @@
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="22" customFormat="1">
@@ -10643,14 +10634,14 @@
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="22" customFormat="1">
@@ -10659,17 +10650,17 @@
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
@@ -10682,23 +10673,21 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>669</v>
-      </c>
+      <c r="C27" s="51"/>
       <c r="D27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>169</v>
       </c>
       <c r="G27" s="21"/>
@@ -10712,7 +10701,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="11" t="s">
@@ -10722,7 +10711,7 @@
         <v>126</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>162</v>
@@ -10764,7 +10753,7 @@
         <v>126</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>162</v>
@@ -10806,7 +10795,7 @@
         <v>126</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>162</v>
@@ -10851,7 +10840,7 @@
         <v>177</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>135</v>
@@ -10862,13 +10851,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>582</v>
+      <c r="F35" s="26" t="s">
+        <v>580</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="24" t="s">
@@ -10889,7 +10878,7 @@
         <v>470</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="22" customFormat="1">
@@ -10937,7 +10926,7 @@
         <v>470</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="22" customFormat="1">
@@ -10985,7 +10974,7 @@
         <v>470</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1">
@@ -11033,7 +11022,7 @@
         <v>470</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="22" customFormat="1">
@@ -11072,9 +11061,6 @@
       <c r="A48" s="22">
         <v>47</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>670</v>
-      </c>
       <c r="D48" s="11" t="s">
         <v>45</v>
       </c>
@@ -11085,7 +11071,7 @@
         <v>350</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>478</v>
@@ -11107,10 +11093,10 @@
         <v>183</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>395</v>
+        <v>725</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1" ht="38.25">
@@ -11123,37 +11109,35 @@
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="22" customFormat="1" ht="60">
+    <row r="51" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="A51" s="22">
         <v>50</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>500</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="C51" s="51"/>
       <c r="D51" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="21" t="s">
-        <v>499</v>
+      <c r="F51" s="22" t="s">
+        <v>498</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="24" t="s">
-        <v>489</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="22" customFormat="1" ht="45">
@@ -11177,149 +11161,147 @@
         <v>479</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="22" customFormat="1">
-      <c r="C53" s="50" t="s">
-        <v>721</v>
-      </c>
+    <row r="53" spans="1:9" s="22" customFormat="1" ht="45">
+      <c r="C53" s="50"/>
       <c r="D53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="22" customFormat="1">
+      <c r="C54" s="50"/>
+      <c r="D54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="22" customFormat="1" ht="25.5">
+      <c r="C55" s="50"/>
+      <c r="D55" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="H53" s="24"/>
-    </row>
-    <row r="54" spans="1:9" s="22" customFormat="1">
-      <c r="C54" s="50" t="s">
-        <v>722</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="H54" s="24"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="22">
-        <v>52</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="E55" s="12"/>
       <c r="F55" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55" s="21"/>
+        <v>724</v>
+      </c>
       <c r="H55" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" s="22" customFormat="1">
-      <c r="A56" s="22">
-        <v>53</v>
-      </c>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="C56" s="50"/>
       <c r="D56" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="22" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="22" customFormat="1">
+        <v>723</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="22">
-        <v>54</v>
-      </c>
-      <c r="C57" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="C57" s="51"/>
       <c r="D57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="12"/>
+        <v>51</v>
+      </c>
       <c r="F57" s="22" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>368</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" s="22" customFormat="1">
       <c r="A58" s="22">
-        <v>55</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>298</v>
+        <v>53</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="H58" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1">
       <c r="A59" s="22">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="50"/>
       <c r="D59" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="22" customFormat="1" ht="30">
-      <c r="A60" s="22">
-        <v>57</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>615</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="22" customFormat="1">
       <c r="C60" s="50"/>
-      <c r="D60" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="12"/>
+      <c r="D60" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="13"/>
       <c r="F60" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="22" customFormat="1">
+        <v>660</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="22">
-        <v>58</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="22" t="s">
-        <v>696</v>
+        <v>55</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="G61" s="22" t="s">
         <v>162</v>
@@ -11327,91 +11309,92 @@
       <c r="H61" s="23" t="s">
         <v>135</v>
       </c>
+      <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" s="22" customFormat="1">
       <c r="A62" s="22">
-        <v>59</v>
-      </c>
-      <c r="C62" s="54"/>
+        <v>56</v>
+      </c>
+      <c r="C62" s="50"/>
       <c r="D62" s="11" t="s">
-        <v>632</v>
+        <v>66</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" spans="1:9" s="22" customFormat="1">
+        <v>329</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A63" s="22">
-        <v>60</v>
-      </c>
-      <c r="C63" s="54"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C63" s="50"/>
       <c r="D63" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="22" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="22" customFormat="1" ht="30">
+        <v>666</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="22" customFormat="1">
       <c r="A64" s="22">
-        <v>61</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>616</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C64" s="54"/>
       <c r="D64" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="22" t="s">
-        <v>435</v>
+        <v>687</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>466</v>
+        <v>162</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1">
-      <c r="A65" s="22">
-        <v>62</v>
-      </c>
       <c r="C65" s="54"/>
-      <c r="D65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="12"/>
+      <c r="D65" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="13"/>
       <c r="F65" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>466</v>
+        <v>660</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1">
       <c r="A66" s="22">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C66" s="54"/>
       <c r="D66" s="11" t="s">
-        <v>79</v>
+        <v>629</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>162</v>
+      <c r="F66" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="H66" s="23" t="s">
         <v>135</v>
@@ -11419,116 +11402,122 @@
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1">
       <c r="A67" s="22">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" s="54"/>
       <c r="D67" s="11" t="s">
-        <v>673</v>
+        <v>73</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="H67" s="23"/>
-    </row>
-    <row r="68" spans="1:8" s="26" customFormat="1">
+        <v>329</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="22" customFormat="1" ht="30">
       <c r="A68" s="22">
-        <v>65</v>
-      </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="26" customFormat="1" ht="30">
+        <v>61</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="22" customFormat="1">
       <c r="A69" s="22">
-        <v>66</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="26" t="s">
-        <v>691</v>
+        <v>62</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="22" t="s">
+        <v>667</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="26" customFormat="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="22" customFormat="1">
       <c r="A70" s="22">
-        <v>67</v>
-      </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C70" s="54"/>
+      <c r="D70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="26" customFormat="1">
-      <c r="A71" s="22">
-        <v>68</v>
-      </c>
-      <c r="C71" s="53"/>
+        <v>686</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="22" customFormat="1">
+      <c r="C71" s="54"/>
       <c r="D71" s="16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E71" s="13"/>
-      <c r="F71" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>162</v>
+      <c r="F71" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="H71" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="26" customFormat="1">
+    <row r="72" spans="1:8" s="22" customFormat="1">
       <c r="A72" s="22">
-        <v>69</v>
-      </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="H72" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="C72" s="54"/>
+      <c r="D72" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="73" spans="1:8" s="26" customFormat="1">
       <c r="A73" s="22">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C73" s="53"/>
       <c r="D73" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="26" t="s">
         <v>329</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="H73" s="23" t="s">
         <v>135</v>
@@ -11536,47 +11525,47 @@
     </row>
     <row r="74" spans="1:8" s="26" customFormat="1" ht="30">
       <c r="A74" s="22">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="26" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="26" customFormat="1">
       <c r="A75" s="22">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C75" s="53"/>
       <c r="D75" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="26" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="26" customFormat="1">
       <c r="A76" s="22">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C76" s="53"/>
       <c r="D76" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="26" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>162</v>
@@ -11586,164 +11575,271 @@
       </c>
     </row>
     <row r="77" spans="1:8" s="26" customFormat="1">
-      <c r="A77" s="22">
-        <v>74</v>
-      </c>
+      <c r="A77" s="22"/>
       <c r="C77" s="53"/>
       <c r="D77" s="16" t="s">
-        <v>697</v>
+        <v>84</v>
       </c>
       <c r="E77" s="13"/>
-      <c r="F77" s="26" t="s">
-        <v>633</v>
+      <c r="F77" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" s="26" customFormat="1">
       <c r="A78" s="22">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C78" s="53"/>
       <c r="D78" s="16" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E78" s="13"/>
-      <c r="F78" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="25" t="s">
-        <v>678</v>
+      <c r="F78" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="26" customFormat="1">
       <c r="A79" s="22">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C79" s="53"/>
       <c r="D79" s="16" t="s">
-        <v>680</v>
+        <v>87</v>
       </c>
       <c r="E79" s="13"/>
-      <c r="F79" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="25" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="26" customFormat="1">
+      <c r="F79" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="26" customFormat="1" ht="30">
       <c r="A80" s="22">
-        <v>77</v>
-      </c>
-      <c r="C80" s="53"/>
+        <v>71</v>
+      </c>
+      <c r="C80" s="51"/>
       <c r="D80" s="16" t="s">
-        <v>681</v>
+        <v>88</v>
       </c>
       <c r="E80" s="13"/>
-      <c r="F80" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>678</v>
+      <c r="F80" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="26" customFormat="1">
       <c r="A81" s="22">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="16" t="s">
-        <v>682</v>
+        <v>90</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="H81" s="25" t="s">
         <v>685</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="26" customFormat="1">
       <c r="A82" s="22">
-        <v>79</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>690</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C82" s="53"/>
       <c r="D82" s="16" t="s">
-        <v>683</v>
+        <v>93</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="30">
-      <c r="A83" s="22">
+        <v>686</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="26" customFormat="1">
+      <c r="A83" s="22"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="26" customFormat="1">
+      <c r="A84" s="22">
+        <v>74</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="26" customFormat="1">
+      <c r="A85" s="22">
+        <v>75</v>
+      </c>
+      <c r="C85" s="53"/>
+      <c r="D85" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="26" customFormat="1">
+      <c r="A86" s="22">
+        <v>76</v>
+      </c>
+      <c r="C86" s="53"/>
+      <c r="D86" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="26" customFormat="1">
+      <c r="A87" s="22">
+        <v>77</v>
+      </c>
+      <c r="C87" s="53"/>
+      <c r="D87" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="26" customFormat="1">
+      <c r="A88" s="22">
+        <v>78</v>
+      </c>
+      <c r="C88" s="53"/>
+      <c r="D88" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="26" customFormat="1">
+      <c r="A89" s="22">
+        <v>79</v>
+      </c>
+      <c r="C89" s="51"/>
+      <c r="D89" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="22">
         <v>80</v>
       </c>
-      <c r="C83" s="51" t="s">
-        <v>674</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="C90" s="51"/>
+      <c r="D90" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F90" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" s="22" customFormat="1">
-      <c r="A84" s="22">
+      <c r="G90" s="21"/>
+      <c r="H90" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" s="22" customFormat="1">
+      <c r="A91" s="22">
         <v>81</v>
       </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="11" t="s">
+      <c r="C91" s="50"/>
+      <c r="D91" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" s="22" t="s">
+      <c r="E91" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G91" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H84" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="D86" s="61" t="s">
+      <c r="H91" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="D93" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="C87" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="F87" s="27"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="F94" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D93:H93"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -11801,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>0</v>
@@ -11822,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>1</v>
@@ -11887,7 +11983,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>271</v>
@@ -11907,7 +12003,7 @@
         <v>133</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>272</v>
@@ -11976,7 +12072,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="38" t="s">
@@ -12238,7 +12334,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>167</v>
@@ -12320,7 +12416,7 @@
         <v>126</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>174</v>
@@ -12361,7 +12457,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>174</v>
@@ -12402,7 +12498,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>174</v>
@@ -12482,7 +12578,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="38" t="s">
@@ -12500,7 +12596,7 @@
         <v>131</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="38" t="s">
@@ -12537,7 +12633,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="38" t="s">
@@ -12556,7 +12652,7 @@
         <v>132</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="38" t="s">
@@ -12593,7 +12689,7 @@
         <v>44</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="38" t="s">
@@ -12611,7 +12707,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="38" t="s">
@@ -12633,7 +12729,7 @@
         <v>126</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>289</v>
@@ -12721,7 +12817,7 @@
         <v>126</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>188</v>
@@ -12760,7 +12856,7 @@
         <v>52</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>289</v>
@@ -12841,7 +12937,7 @@
         <v>57</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>188</v>
@@ -13158,7 +13254,7 @@
         <v>126</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>222</v>
@@ -13444,7 +13540,7 @@
         <v>127</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -13460,7 +13556,7 @@
         <v>470</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
@@ -13515,7 +13611,7 @@
         <v>161</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -13524,7 +13620,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>6</v>
@@ -13539,7 +13635,7 @@
         <v>163</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
@@ -13578,7 +13674,7 @@
         <v>162</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
@@ -13596,12 +13692,12 @@
         <v>388</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="C13" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -13609,7 +13705,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1">
       <c r="C14" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -13631,7 +13727,7 @@
         <v>423</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1" ht="45">
@@ -13652,7 +13748,7 @@
         <v>279</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5">
@@ -13670,7 +13766,7 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -13679,7 +13775,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>12</v>
@@ -13692,7 +13788,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -13701,7 +13797,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>13</v>
@@ -13716,7 +13812,7 @@
         <v>305</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1" ht="60">
@@ -13724,7 +13820,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>14</v>
@@ -13737,7 +13833,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1" ht="45">
@@ -13758,7 +13854,7 @@
         <v>280</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="30">
@@ -13831,10 +13927,10 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
@@ -13855,7 +13951,7 @@
         <v>162</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="22" customFormat="1">
@@ -13895,7 +13991,7 @@
         <v>162</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="22" customFormat="1">
@@ -13933,7 +14029,7 @@
         <v>162</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="22" customFormat="1">
@@ -13970,7 +14066,7 @@
         <v>177</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>135</v>
@@ -13981,7 +14077,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>38</v>
@@ -13991,7 +14087,7 @@
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -14008,7 +14104,7 @@
         <v>470</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="22" customFormat="1">
@@ -14059,7 +14155,7 @@
         <v>179</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1">
@@ -14102,7 +14198,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>45</v>
@@ -14111,13 +14207,13 @@
         <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>380</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -14147,7 +14243,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>302</v>
@@ -14160,7 +14256,7 @@
         <v>190</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1" ht="25.5">
@@ -14181,12 +14277,12 @@
         <v>186</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
       <c r="C44" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
@@ -14208,10 +14304,10 @@
         <v>358</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -14219,7 +14315,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>51</v>
@@ -14229,7 +14325,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="24" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -14265,7 +14361,7 @@
         <v>194</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="22" customFormat="1">
@@ -14290,7 +14386,7 @@
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1">
       <c r="C50" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>282</v>
@@ -14299,7 +14395,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -14307,7 +14403,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>122</v>
@@ -14317,7 +14413,7 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="24" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I51" s="10"/>
     </row>
@@ -15733,8 +15829,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18300,7 +18396,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>186</v>
@@ -18665,7 +18761,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>368</v>
@@ -18698,7 +18794,7 @@
         <v>325</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>135</v>
@@ -18758,7 +18854,7 @@
         <v>386</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -18778,7 +18874,7 @@
         <v>162</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1" ht="30">
@@ -18795,7 +18891,7 @@
         <v>388</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1">
@@ -18827,10 +18923,10 @@
         <v>126</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>368</v>
@@ -18847,7 +18943,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24" t="s">
@@ -18866,7 +18962,7 @@
         <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="25" t="s">
@@ -18885,10 +18981,10 @@
         <v>126</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>135</v>
@@ -18905,7 +19001,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>135</v>
@@ -18922,7 +19018,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>135</v>
@@ -18939,7 +19035,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -18996,13 +19092,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="22" customFormat="1">
@@ -19019,7 +19115,7 @@
         <v>338</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>135</v>
@@ -19036,7 +19132,7 @@
         <v>126</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>162</v>
@@ -19059,7 +19155,7 @@
         <v>338</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>135</v>
@@ -19094,7 +19190,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>451</v>
@@ -19155,7 +19251,7 @@
         <v>190</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" ht="25.5">
@@ -19169,13 +19265,13 @@
         <v>126</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="22" customFormat="1" ht="30">
@@ -19192,10 +19288,10 @@
         <v>358</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="22" customFormat="1">
@@ -19207,10 +19303,10 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="22" customFormat="1">
@@ -19240,10 +19336,10 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -19294,7 +19390,7 @@
         <v>383</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1">
@@ -19327,7 +19423,7 @@
         <v>329</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>135</v>
@@ -19342,10 +19438,10 @@
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>135</v>
@@ -19378,7 +19474,7 @@
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>135</v>
@@ -19398,7 +19494,7 @@
         <v>337</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -19539,10 +19635,10 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G5" s="24"/>
     </row>
@@ -19558,7 +19654,7 @@
         <v>324</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>135</v>
@@ -19595,7 +19691,7 @@
         <v>126</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>161</v>
@@ -19650,7 +19746,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>343</v>
@@ -19710,13 +19806,13 @@
         <v>126</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>562</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>564</v>
       </c>
       <c r="G14" s="24"/>
     </row>
@@ -19734,7 +19830,7 @@
         <v>277</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -19749,10 +19845,10 @@
         <v>126</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G16" s="24"/>
     </row>
@@ -19806,13 +19902,13 @@
         <v>126</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G19" s="24"/>
     </row>
@@ -19827,7 +19923,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -19887,13 +19983,13 @@
         <v>126</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G23" s="24"/>
     </row>
@@ -19911,7 +20007,7 @@
         <v>338</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>135</v>
@@ -19948,10 +20044,10 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -19993,7 +20089,7 @@
         <v>347</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G28" s="24"/>
     </row>
@@ -20006,13 +20102,13 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>190</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G29" s="24"/>
     </row>
@@ -20030,7 +20126,7 @@
         <v>361</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -20051,7 +20147,7 @@
         <v>188</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G31" s="23"/>
     </row>
@@ -20064,10 +20160,10 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -20099,10 +20195,10 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G34" s="23"/>
     </row>
@@ -20153,7 +20249,7 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>128</v>
@@ -20191,7 +20287,7 @@
         <v>329</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>135</v>
@@ -20207,10 +20303,10 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>135</v>
@@ -20248,10 +20344,10 @@
         <v>329</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>573</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>575</v>
       </c>
       <c r="G42" s="24"/>
     </row>
@@ -20264,7 +20360,7 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>135</v>
@@ -20304,7 +20400,7 @@
         <v>337</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -21737,7 +21833,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="22" customFormat="1">
@@ -21752,7 +21848,7 @@
         <v>470</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="22" customFormat="1">
@@ -21853,7 +21949,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>162</v>
@@ -21894,7 +21990,7 @@
         <v>423</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="30">
@@ -21911,7 +22007,7 @@
         <v>424</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>365</v>
@@ -21986,7 +22082,7 @@
         <v>425</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>485</v>
@@ -22010,7 +22106,7 @@
         <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -22025,7 +22121,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -22076,40 +22172,40 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>657</v>
-      </c>
       <c r="F23" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>655</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>658</v>
       </c>
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>659</v>
-      </c>
       <c r="F25" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -22121,10 +22217,10 @@
         <v>282</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -22145,7 +22241,7 @@
         <v>162</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G27" s="22"/>
     </row>
@@ -22181,13 +22277,13 @@
         <v>126</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G29" s="22"/>
     </row>
@@ -22226,7 +22322,7 @@
         <v>177</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>135</v>
@@ -22241,10 +22337,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -22262,10 +22358,10 @@
         <v>350</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -22283,7 +22379,7 @@
         <v>183</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>247</v>
@@ -22298,10 +22394,10 @@
         <v>302</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>458</v>
@@ -22319,10 +22415,10 @@
         <v>126</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G36" s="22"/>
     </row>
@@ -22340,7 +22436,7 @@
         <v>358</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>479</v>
@@ -22358,7 +22454,7 @@
         <v>249</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -22391,7 +22487,7 @@
         <v>194</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G40" s="22"/>
     </row>
@@ -22403,7 +22499,7 @@
         <v>63</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>135</v>
@@ -22472,7 +22568,7 @@
         <v>69</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>459</v>
@@ -22487,7 +22583,7 @@
         <v>70</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>135</v>
@@ -22502,7 +22598,7 @@
         <v>72</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>162</v>
@@ -22541,7 +22637,7 @@
         <v>435</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>466</v>
@@ -22556,7 +22652,7 @@
         <v>76</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>466</v>
@@ -22571,7 +22667,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>135</v>
@@ -22662,8 +22758,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22744,7 +22840,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G4" s="22"/>
     </row>
@@ -22759,7 +22855,7 @@
         <v>470</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="G5" s="22"/>
     </row>
@@ -22831,7 +22927,7 @@
         <v>163</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -22864,7 +22960,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>162</v>
@@ -22924,10 +23020,10 @@
         <v>424</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G14" s="22"/>
     </row>
@@ -23002,7 +23098,7 @@
         <v>425</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>485</v>
@@ -23041,7 +23137,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>162</v>
@@ -23092,40 +23188,40 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>657</v>
-      </c>
       <c r="F24" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>659</v>
-      </c>
       <c r="F25" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -23146,7 +23242,7 @@
         <v>162</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -23182,13 +23278,13 @@
         <v>126</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>162</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G28" s="22"/>
     </row>
@@ -23227,7 +23323,7 @@
         <v>177</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>135</v>
@@ -23242,10 +23338,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G31" s="22"/>
     </row>
@@ -23263,10 +23359,10 @@
         <v>350</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -23284,10 +23380,10 @@
         <v>183</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -23299,10 +23395,10 @@
         <v>302</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>458</v>
@@ -23320,10 +23416,10 @@
         <v>126</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G35" s="22"/>
     </row>
@@ -23341,10 +23437,10 @@
         <v>358</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="G36" s="22"/>
     </row>
@@ -23359,7 +23455,7 @@
         <v>249</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G37" s="22"/>
     </row>
@@ -23374,10 +23470,10 @@
         <v>350</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -23392,10 +23488,10 @@
         <v>183</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G39" s="22"/>
     </row>
@@ -23407,10 +23503,10 @@
         <v>126</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G40" s="22"/>
     </row>
@@ -23425,10 +23521,10 @@
         <v>358</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="G41" s="22"/>
     </row>
@@ -23440,7 +23536,7 @@
         <v>249</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G42" s="22"/>
     </row>
@@ -23473,7 +23569,7 @@
         <v>194</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G44" s="22"/>
     </row>
@@ -23485,7 +23581,7 @@
         <v>63</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>135</v>
@@ -23551,7 +23647,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>218</v>
@@ -23572,7 +23668,7 @@
         <v>70</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>135</v>
@@ -23626,7 +23722,7 @@
         <v>435</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>466</v>
@@ -23638,7 +23734,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>218</v>
@@ -23659,7 +23755,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>135</v>
@@ -23696,7 +23792,7 @@
       </c>
       <c r="E57" s="47"/>
       <c r="F57" s="25" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G57" s="22"/>
     </row>

--- a/Arctos_DataDictionary.xlsx
+++ b/Arctos_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="105" yWindow="6690" windowWidth="28650" windowHeight="6180" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="MAMM" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="730">
   <si>
     <t>COLLECTION_OBJECT_ID</t>
   </si>
@@ -3275,9 +3275,6 @@
   </si>
   <si>
     <t>need to mark uncertainty for [unconfirmed] rows; wrap remarks into object remarks</t>
-  </si>
-  <si>
-    <t>See 'Mala_TAXONMatch_[date].xlxs'; need to do MUCH work</t>
   </si>
   <si>
     <t>Common Name, Remarks</t>
@@ -3801,7 +3798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3989,12 +3986,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4163,7 +4154,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4318,16 +4309,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4336,7 +4324,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6955,11 +6943,11 @@
       <c r="G131" s="10"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="60" t="s">
+      <c r="B133" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
     </row>
   </sheetData>
   <sortState ref="A2:F131">
@@ -7454,7 +7442,7 @@
         <v>653</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>656</v>
@@ -7967,7 +7955,7 @@
       <c r="E53" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="59"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="39" t="s">
         <v>368</v>
       </c>
@@ -7995,13 +7983,13 @@
       <c r="H54" s="22"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9036,13 +9024,13 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="27"/>
@@ -9121,10 +9109,10 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -9144,8 +9132,8 @@
       <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>711</v>
+      <c r="B4" s="56" t="s">
+        <v>710</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -9170,7 +9158,7 @@
         <v>470</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="22" customFormat="1">
@@ -9242,17 +9230,17 @@
         <v>163</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1">
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -9282,7 +9270,7 @@
         <v>162</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" ht="30">
@@ -9299,7 +9287,7 @@
         <v>388</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1">
@@ -9312,7 +9300,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>368</v>
@@ -9323,7 +9311,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>10</v>
@@ -9338,7 +9326,7 @@
         <v>279</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1">
@@ -9346,7 +9334,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -9358,7 +9346,7 @@
         <v>277</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="22" customFormat="1" ht="30">
@@ -9366,7 +9354,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -9385,7 +9373,7 @@
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -9461,7 +9449,7 @@
         <v>162</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="22" customFormat="1">
@@ -9469,7 +9457,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>25</v>
@@ -9481,17 +9469,17 @@
         <v>165</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="22" customFormat="1">
       <c r="A22" s="22">
         <v>30</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -9517,7 +9505,7 @@
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="26" customFormat="1">
@@ -9530,7 +9518,7 @@
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="26" customFormat="1">
@@ -9545,17 +9533,17 @@
         <v>656</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5">
         <v>32</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C26" s="55" t="s">
+      <c r="B26" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C26" s="54" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="21" t="s">
@@ -9583,17 +9571,17 @@
         <v>162</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="22" customFormat="1">
       <c r="A28" s="22">
         <v>34</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -9624,14 +9612,14 @@
         <v>162</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="22" customFormat="1">
-      <c r="B30" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -9651,10 +9639,10 @@
       <c r="A31" s="22">
         <v>41</v>
       </c>
-      <c r="B31" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -9675,7 +9663,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>38</v>
@@ -9684,7 +9672,7 @@
         <v>492</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -9700,7 +9688,7 @@
         <v>470</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="26" customFormat="1">
@@ -9742,7 +9730,7 @@
         <v>470</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="26" customFormat="1">
@@ -9773,10 +9761,10 @@
       <c r="A39" s="5">
         <v>52</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C39" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="12" t="s">
@@ -9811,15 +9799,15 @@
         <v>495</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="30">
       <c r="A41" s="22">
         <v>55</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>710</v>
+      <c r="B41" s="56" t="s">
+        <v>709</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>302</v>
@@ -9831,16 +9819,16 @@
       <c r="F41" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="G41" s="56" t="s">
-        <v>697</v>
+      <c r="G41" s="55" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="25.5">
       <c r="A42" s="22">
         <v>56</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>708</v>
+      <c r="B42" s="56" t="s">
+        <v>707</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>49</v>
@@ -9860,7 +9848,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>50</v>
@@ -9883,7 +9871,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>51</v>
@@ -9892,7 +9880,7 @@
         <v>249</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -9926,17 +9914,17 @@
         <v>194</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="5">
         <v>62</v>
       </c>
-      <c r="B47" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="42" t="s">
@@ -9954,10 +9942,10 @@
       <c r="A48" s="22">
         <v>73</v>
       </c>
-      <c r="B48" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C48" s="54" t="s">
         <v>66</v>
       </c>
       <c r="D48" s="12"/>
@@ -9984,7 +9972,7 @@
         <v>508</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>459</v>
@@ -9994,10 +9982,10 @@
       <c r="A50" s="22">
         <v>79</v>
       </c>
-      <c r="B50" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C50" s="55" t="s">
+      <c r="B50" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C50" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="12"/>
@@ -10015,10 +10003,10 @@
       <c r="A51" s="22">
         <v>80</v>
       </c>
-      <c r="B51" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C51" s="55" t="s">
+      <c r="B51" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="12"/>
@@ -10055,10 +10043,10 @@
       <c r="A53" s="22">
         <v>86</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C53" s="55" t="s">
+      <c r="B53" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C53" s="54" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="12"/>
@@ -10084,17 +10072,17 @@
         <v>221</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="22" customFormat="1">
       <c r="A55" s="22">
         <v>130</v>
       </c>
-      <c r="B55" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="12" t="s">
@@ -10111,13 +10099,13 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="1:7">
       <c r="E58" s="27"/>
@@ -10143,9 +10131,9 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10231,7 +10219,7 @@
         <v>633</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -10253,7 +10241,7 @@
         <v>612</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
@@ -10325,23 +10313,21 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="30">
+    <row r="9" spans="1:9" s="22" customFormat="1" ht="25.5">
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>664</v>
-      </c>
+      <c r="C9" s="51"/>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>163</v>
       </c>
       <c r="H9" s="24" t="s">
@@ -10409,7 +10395,7 @@
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="11" t="s">
         <v>125</v>
       </c>
@@ -10421,7 +10407,7 @@
         <v>423</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
@@ -10616,7 +10602,7 @@
       <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="11" t="s">
         <v>651</v>
       </c>
@@ -10625,14 +10611,14 @@
         <v>654</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="22" customFormat="1">
       <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="11" t="s">
         <v>652</v>
       </c>
@@ -10641,14 +10627,14 @@
         <v>654</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="22" customFormat="1">
       <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="11" t="s">
         <v>653</v>
       </c>
@@ -10660,7 +10646,7 @@
         <v>656</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
@@ -10676,7 +10662,7 @@
         <v>648</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -10851,7 +10837,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>38</v>
@@ -11096,7 +11082,7 @@
         <v>495</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1" ht="38.25">
@@ -11188,10 +11174,10 @@
         <v>126</v>
       </c>
       <c r="F54" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>726</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>727</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>135</v>
@@ -11204,7 +11190,7 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>638</v>
@@ -11220,7 +11206,7 @@
         <v>358</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>479</v>
@@ -11346,7 +11332,7 @@
         <v>383</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>459</v>
@@ -11356,13 +11342,13 @@
       <c r="A64" s="22">
         <v>58</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="11" t="s">
         <v>72</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>162</v>
@@ -11372,7 +11358,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1">
-      <c r="C65" s="54"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="16" t="s">
         <v>70</v>
       </c>
@@ -11388,7 +11374,7 @@
       <c r="A66" s="22">
         <v>59</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="11" t="s">
         <v>629</v>
       </c>
@@ -11404,7 +11390,7 @@
       <c r="A67" s="22">
         <v>60</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="11" t="s">
         <v>73</v>
       </c>
@@ -11444,13 +11430,13 @@
       <c r="A69" s="22">
         <v>62</v>
       </c>
-      <c r="C69" s="54"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>466</v>
@@ -11460,13 +11446,13 @@
       <c r="A70" s="22">
         <v>63</v>
       </c>
-      <c r="C70" s="54"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="11" t="s">
         <v>79</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G70" s="22" t="s">
         <v>162</v>
@@ -11476,7 +11462,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1">
-      <c r="C71" s="54"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="16" t="s">
         <v>77</v>
       </c>
@@ -11492,9 +11478,9 @@
       <c r="A72" s="22">
         <v>64</v>
       </c>
-      <c r="C72" s="54"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="22" t="s">
@@ -11508,7 +11494,7 @@
       <c r="A73" s="22">
         <v>65</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="16" t="s">
         <v>80</v>
       </c>
@@ -11517,7 +11503,7 @@
         <v>329</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H73" s="23" t="s">
         <v>135</v>
@@ -11533,39 +11519,39 @@
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="26" customFormat="1">
       <c r="A75" s="22">
         <v>67</v>
       </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="26" customFormat="1">
       <c r="A76" s="22">
         <v>68</v>
       </c>
-      <c r="C76" s="53"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>162</v>
@@ -11576,7 +11562,7 @@
     </row>
     <row r="77" spans="1:8" s="26" customFormat="1">
       <c r="A77" s="22"/>
-      <c r="C77" s="53"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="16" t="s">
         <v>84</v>
       </c>
@@ -11590,9 +11576,9 @@
       <c r="A78" s="22">
         <v>69</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="26" t="s">
@@ -11606,7 +11592,7 @@
       <c r="A79" s="22">
         <v>70</v>
       </c>
-      <c r="C79" s="53"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="16" t="s">
         <v>87</v>
       </c>
@@ -11615,7 +11601,7 @@
         <v>329</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H79" s="23" t="s">
         <v>135</v>
@@ -11631,39 +11617,39 @@
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="26" customFormat="1">
       <c r="A81" s="22">
         <v>72</v>
       </c>
-      <c r="C81" s="53"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="26" customFormat="1">
       <c r="A82" s="22">
         <v>73</v>
       </c>
-      <c r="C82" s="53"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G82" s="26" t="s">
         <v>162</v>
@@ -11674,7 +11660,7 @@
     </row>
     <row r="83" spans="1:9" s="26" customFormat="1">
       <c r="A83" s="22"/>
-      <c r="C83" s="53"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="16" t="s">
         <v>91</v>
       </c>
@@ -11690,9 +11676,9 @@
       <c r="A84" s="22">
         <v>74</v>
       </c>
-      <c r="C84" s="53"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="26" t="s">
@@ -11706,69 +11692,69 @@
       <c r="A85" s="22">
         <v>75</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="26" customFormat="1">
       <c r="A86" s="22">
         <v>76</v>
       </c>
-      <c r="C86" s="53"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="26" customFormat="1">
       <c r="A87" s="22">
         <v>77</v>
       </c>
-      <c r="C87" s="53"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="G87" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="G87" s="22" t="s">
-        <v>681</v>
-      </c>
       <c r="H87" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="26" customFormat="1">
       <c r="A88" s="22">
         <v>78</v>
       </c>
-      <c r="C88" s="53"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="26" customFormat="1">
@@ -11777,14 +11763,14 @@
       </c>
       <c r="C89" s="51"/>
       <c r="D89" s="16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="H89" s="25" t="s">
         <v>676</v>
-      </c>
-      <c r="H89" s="25" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -11826,13 +11812,13 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="D93" s="61" t="s">
+      <c r="D93" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
     </row>
     <row r="94" spans="1:9">
       <c r="F94" s="27"/>
@@ -13271,11 +13257,11 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
@@ -14439,13 +14425,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" s="27"/>
@@ -15646,11 +15632,11 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
@@ -17737,13 +17723,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="60"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:7">
       <c r="D111" s="27"/>
@@ -18637,13 +18623,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
     </row>
     <row r="50" spans="2:6">
       <c r="D50" s="27"/>
@@ -19507,13 +19493,13 @@
       <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48" spans="1:7">
       <c r="D48" s="27"/>
@@ -20411,13 +20397,13 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
@@ -21568,13 +21554,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
@@ -22730,13 +22716,13 @@
       <c r="G54" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22840,7 +22826,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G4" s="22"/>
     </row>
@@ -22855,7 +22841,7 @@
         <v>470</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G5" s="22"/>
     </row>
@@ -22927,7 +22913,7 @@
         <v>163</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -23242,7 +23228,7 @@
         <v>162</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -23284,7 +23270,7 @@
         <v>162</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G28" s="22"/>
     </row>
@@ -23338,10 +23324,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G31" s="22"/>
     </row>
@@ -23359,10 +23345,10 @@
         <v>350</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -23383,7 +23369,7 @@
         <v>658</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -23440,7 +23426,7 @@
         <v>659</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G36" s="22"/>
     </row>
@@ -23455,7 +23441,7 @@
         <v>249</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G37" s="22"/>
     </row>
@@ -23470,10 +23456,10 @@
         <v>350</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -23491,7 +23477,7 @@
         <v>658</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G39" s="22"/>
     </row>
@@ -23524,7 +23510,7 @@
         <v>659</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G41" s="22"/>
     </row>
@@ -23536,7 +23522,7 @@
         <v>249</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G42" s="22"/>
     </row>
@@ -23734,7 +23720,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>218</v>
@@ -23792,7 +23778,7 @@
       </c>
       <c r="E57" s="47"/>
       <c r="F57" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G57" s="22"/>
     </row>
@@ -23818,13 +23804,13 @@
       <c r="G58" s="22"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
